--- a/report/abbviemedical_responses.xlsx
+++ b/report/abbviemedical_responses.xlsx
@@ -4,15 +4,15 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Great Britain" sheetId="1" r:id="rId1"/>
-    <sheet name="Saudi Arabia" sheetId="2" r:id="rId2"/>
+    <sheet name="Canada FR" sheetId="2" r:id="rId2"/>
     <sheet name="Canada EN" sheetId="3" r:id="rId3"/>
-    <sheet name="Canada FR" sheetId="4" r:id="rId4"/>
+    <sheet name="Saudi Arabia" sheetId="4" r:id="rId4"/>
     <sheet name="USA" sheetId="5" r:id="rId5"/>
     <sheet name="Greece" sheetId="6" r:id="rId6"/>
-    <sheet name="Baltics LAV" sheetId="7" r:id="rId7"/>
-    <sheet name="Italy" sheetId="8" r:id="rId8"/>
-    <sheet name="Baltics EST" sheetId="9" r:id="rId9"/>
-    <sheet name="Baltics LIT" sheetId="10" r:id="rId10"/>
+    <sheet name="Italy" sheetId="7" r:id="rId7"/>
+    <sheet name="Baltics LAV" sheetId="8" r:id="rId8"/>
+    <sheet name="Baltics LIT" sheetId="9" r:id="rId9"/>
+    <sheet name="Baltics EST" sheetId="10" r:id="rId10"/>
   </sheets>
 </workbook>
 </file>
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -453,15 +453,15 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D61_sn_RHST48E413GA11R83RIODUBG073C1SRD&amp;svrid=-61&amp;flavor=cors&amp;vi=LGPPJMKVVAMJBMKKMMBUROAJHPRMRFVF-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3709922340&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D61_sn_RHST48E413GA11R83RIODUBG073C1SRD&amp;svrid=-61&amp;flavor=cors&amp;vi=LGPPJMKVVAMJBMKKMMBUROAJHPRMRFVF-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=451294509&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D93_sn_KN9EU3OU2IBBL2APQLT6A8PJBGRMKFK2&amp;svrid=-93&amp;flavor=cors&amp;vi=EKFTWSAJDPQUABCPFOCHSHHVRKSUMRKW-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2965921533&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -469,15 +469,15 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D93_sn_KN9EU3OU2IBBL2APQLT6A8PJBGRMKFK2&amp;svrid=-93&amp;flavor=cors&amp;vi=EKFTWSAJDPQUABCPFOCHSHHVRKSUMRKW-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2407448702&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://medical-preview.abbviepro.com/gb/en.html</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -485,7 +485,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -493,7 +493,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/gb/en.html</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -517,15 +517,15 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
       </c>
       <c r="B15">
         <v>304</v>
@@ -533,15 +533,15 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
       </c>
       <c r="B16">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -573,7 +573,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify-white.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav-white.png</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav-white.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify-white.png</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -597,15 +597,15 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B24">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -613,10 +613,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
       </c>
       <c r="B26">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -653,7 +653,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo-white.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -661,7 +661,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://consent.trustarc.com/notice?domain=abbviepro.com&amp;c=teconsent&amp;js=nj&amp;noticeType=bb&amp;text=true&amp;gtm=true</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/gb/pink-flask.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo-white.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -677,7 +677,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/gb/pink-flask.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -685,7 +685,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/gb/en/jcr:content</v>
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -693,7 +693,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://consent.trustarc.com/notice?domain=abbviepro.com&amp;c=teconsent&amp;js=nj&amp;noticeType=bb&amp;text=true&amp;gtm=true</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/gb/en/jcr:content</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://consent.trustarc.com/get?name=ic-close.svg</v>
+        <v>https://consent.trustarc.com/get?name=Powered-By-TrustArc.png</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -717,7 +717,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://consent.trustarc.com/get?name=abbvie-id-logo.png</v>
+        <v>https://consent.trustarc.com/get?name=ic-close.svg</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -725,7 +725,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://consent.trustarc.com/get?name=Powered-By-TrustArc.png</v>
+        <v>https://consent.trustarc.com/get?name=SourceSansPro-Regular.ttf</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -733,15 +733,15 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://consent.trustarc.com/get?name=SourceSansPro-Bold.ttf</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr:content/footer/footer_area/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
       </c>
       <c r="B41">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://medical-preview.abbviepro.com/content/experience-fragments/abbvie-pro-medical/gb/hcp-overlay-v2/master/jcr:content/root/audience_selection_c/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr:content/header/header_area/mega-menu/image-extension/item_1.coreimg.png/1685629684184-AbbVie-Pro-Medical-logo-white.png</v>
       </c>
       <c r="B42">
         <v>302</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr:content/footer/footer_area/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+        <v>https://medical-preview.abbviepro.com/content/experience-fragments/abbvie-pro-medical/gb/hcp-overlay-v2/master/jcr:content/root/audience_selection_c/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
       </c>
       <c r="B43">
         <v>302</v>
@@ -757,15 +757,15 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr:content/header/header_area/mega-menu/image-extension/item_1.coreimg.png/1685629684184-AbbVie-Pro-Medical-logo-white.png</v>
+        <v>https://consent.trustarc.com/log?domain=abbviepro.com&amp;country=bd&amp;state=&amp;behavior=implied&amp;session=29398c5a-0d5b-4979-bfb0-0be75d41b83a&amp;userType=NEW&amp;c=ffd9</v>
       </c>
       <c r="B44">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://consent.trustarc.com/get?name=SourceSansPro-Regular.ttf</v>
+        <v>https://consent.trustarc.com/get?name=abbvie-id-logo.png</v>
       </c>
       <c r="B45">
         <v>200</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://consent.trustarc.com/log?domain=abbviepro.com&amp;country=bd&amp;state=&amp;behavior=implied&amp;session=58a33383-738d-4755-8e4a-59800469210f&amp;userType=NEW&amp;c=04ac</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr%3acontent/footer/footer_area/image-extension/item_1.coreimg.png/1687170291927.png</v>
       </c>
       <c r="B46">
         <v>200</v>
@@ -781,7 +781,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://consent.trustarc.com/bannermsg?action=views&amp;domain=abbviepro.com&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.4053907214007424&amp;session=58a33383-738d-4755-8e4a-59800469210f&amp;userType=NEW</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr%3acontent/header/header_area/mega-menu/image-extension/item_1.coreimg.png/1687170345817.png</v>
       </c>
       <c r="B47">
         <v>200</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://medical-preview.abbviepro.com/content/experience-fragments/abbvie-pro-medical/gb/hcp-overlay-v2/master/jcr%3acontent/root/audience_selection_c/image-extension/item_1.coreimg.png/1686155314893.png</v>
+        <v>https://consent.trustarc.com/bannermsg?action=views&amp;domain=abbviepro.com&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.2657853370075647&amp;session=29398c5a-0d5b-4979-bfb0-0be75d41b83a&amp;userType=NEW</v>
       </c>
       <c r="B48">
         <v>200</v>
@@ -797,7 +797,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr%3acontent/header/header_area/mega-menu/image-extension/item_1.coreimg.png/1687170345817.png</v>
+        <v>https://medical-preview.abbviepro.com/content/experience-fragments/abbvie-pro-medical/gb/hcp-overlay-v2/master/jcr%3acontent/root/audience_selection_c/image-extension/item_1.coreimg.png/1686155314893.png</v>
       </c>
       <c r="B49">
         <v>200</v>
@@ -805,7 +805,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gb/en/jcr%3acontent/footer/footer_area/image-extension/item_1.coreimg.png/1687170291927.png</v>
+        <v>https://consent.trustarc.com/get?name=SourceSansPro-Bold.ttf</v>
       </c>
       <c r="B50">
         <v>200</v>
@@ -813,7 +813,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D61_sn_RHST48E413GA11R83RIODUBG073C1SRD&amp;svrid=-61&amp;flavor=cors&amp;vi=LGPPJMKVVAMJBMKKMMBUROAJHPRMRFVF-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgb%2Fen.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=4183148443&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D93_sn_KN9EU3OU2IBBL2APQLT6A8PJBGRMKFK2&amp;svrid=-93&amp;flavor=cors&amp;vi=EKFTWSAJDPQUABCPFOCHSHHVRKSUMRKW-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgb%2Fen.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1807750933&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B51">
         <v>200</v>
@@ -821,22 +821,38 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D61_sn_RHST48E413GA11R83RIODUBG073C1SRD&amp;svrid=-61&amp;flavor=cors&amp;vi=LGPPJMKVVAMJBMKKMMBUROAJHPRMRFVF-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgb%2Fen.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=4183148443&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D93_sn_KN9EU3OU2IBBL2APQLT6A8PJBGRMKFK2&amp;svrid=-93&amp;flavor=cors&amp;vi=EKFTWSAJDPQUABCPFOCHSHHVRKSUMRKW-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgb%2Fen.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1807750933&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_KN9EU3OU2IBBL2APQLT6A8PJBGRMKFK2_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=EKFTWSAJDPQUABCPFOCHSHHVRKSUMRKW-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgb%2Fen.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2574031206&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_KN9EU3OU2IBBL2APQLT6A8PJBGRMKFK2_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=EKFTWSAJDPQUABCPFOCHSHHVRKSUMRKW-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgb%2Fen.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2574031206&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B54">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B52"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B54"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -851,7 +867,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://medical-preview.abbviepro.com/bal/lit.html</v>
+        <v>https://medical-preview.abbviepro.com/bal/est.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -859,18 +875,18 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/basic-login/jcr:content</v>
+        <v>https://medical-preview.abbviepro.com/bal/est.html</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
@@ -883,15 +899,15 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B6">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D42_sn_GDH1N5UV5GTBS4H15E3LEGC01KJJS3AO&amp;svrid=-42&amp;flavor=cors&amp;vi=KPMKUSBCKUGCOCUCDALMKUVIQPPNADJP-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3256294630&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -899,7 +915,7 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://medical-preview.abbviepro.com/bal/lit/everest.html</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -907,7 +923,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -915,7 +931,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -923,15 +939,15 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
       </c>
       <c r="B11">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/bal/est/everest.html</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -939,7 +955,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -950,20 +966,20 @@
         <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
       </c>
       <c r="B14">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
       </c>
       <c r="B15">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -971,7 +987,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -979,7 +995,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -987,7 +1003,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -995,15 +1011,15 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
+        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -1011,7 +1027,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -1019,7 +1035,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -1027,7 +1043,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -1035,7 +1051,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -1043,7 +1059,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -1051,15 +1067,15 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
       </c>
       <c r="B27">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -1067,7 +1083,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -1075,7 +1091,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/everest%20logo%20trans.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -1083,7 +1099,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -1091,7 +1107,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -1099,7 +1115,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/everest%20logo%20trans.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -1107,7 +1123,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -1115,7 +1131,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -1123,23 +1139,23 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/est/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
       </c>
       <c r="B36">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/est/everest/jcr:content/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1698405993374-everest%20logo%20trans.png</v>
       </c>
       <c r="B37">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -1147,7 +1163,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -1155,7 +1171,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/bal/est/everest/jcr:content</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -1163,7 +1179,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B41">
         <v>200</v>
@@ -1171,7 +1187,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -1195,7 +1211,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/est/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1697806876874.png</v>
       </c>
       <c r="B45">
         <v>200</v>
@@ -1203,15 +1219,15 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lit/everest/jcr:content/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1698405993374-everest%20logo%20trans.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
       </c>
       <c r="B46">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B47">
         <v>200</v>
@@ -1219,15 +1235,15 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lit/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B48">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/est/everest/jcr%3acontent/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1700826075655.png</v>
       </c>
       <c r="B49">
         <v>200</v>
@@ -1235,7 +1251,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/bal/lit/everest/jcr:content</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B50">
         <v>200</v>
@@ -1243,7 +1259,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lit/everest/jcr%3acontent/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1700822612494.png</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D93_sn_AOB06KO9C1TCN20V3TVMT8IICHTF97EA&amp;svrid=-93&amp;flavor=cors&amp;vi=NPFOHWKKFAMFUTHBDNGOJHFUFTKMQKAO-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Fest%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=932759391&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B51">
         <v>200</v>
@@ -1251,7 +1267,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lit/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1697806930306.png</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D93_sn_AOB06KO9C1TCN20V3TVMT8IICHTF97EA&amp;svrid=-93&amp;flavor=cors&amp;vi=NPFOHWKKFAMFUTHBDNGOJHFUFTKMQKAO-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Fest%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2767839107&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B52">
         <v>200</v>
@@ -1259,7 +1275,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D42_sn_GDH1N5UV5GTBS4H15E3LEGC01KJJS3AO&amp;svrid=-42&amp;flavor=cors&amp;vi=KPMKUSBCKUGCOCUCDALMKUVIQPPNADJP-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2622243212&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_AOB06KO9C1TCN20V3TVMT8IICHTF97EA_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=NPFOHWKKFAMFUTHBDNGOJHFUFTKMQKAO-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Fest%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3782079826&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B53">
         <v>200</v>
@@ -1267,52 +1283,920 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D42_sn_GDH1N5UV5GTBS4H15E3LEGC01KJJS3AO&amp;svrid=-42&amp;flavor=cors&amp;vi=KPMKUSBCKUGCOCUCDALMKUVIQPPNADJP-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2622243212&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_AOB06KO9C1TCN20V3TVMT8IICHTF97EA_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=NPFOHWKKFAMFUTHBDNGOJHFUFTKMQKAO-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Fest%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3782079826&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D42_sn_GDH1N5UV5GTBS4H15E3LEGC01KJJS3AO&amp;svrid=-42&amp;flavor=cors&amp;vi=KPMKUSBCKUGCOCUCDALMKUVIQPPNADJP-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1321992906&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D42_sn_GDH1N5UV5GTBS4H15E3LEGC01KJJS3AO&amp;svrid=-42&amp;flavor=cors&amp;vi=KPMKUSBCKUGCOCUCDALMKUVIQPPNADJP-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1321992906&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_GDH1N5UV5GTBS4H15E3LEGC01KJJS3AO_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=KPMKUSBCKUGCOCUCDALMKUVIQPPNADJP-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1068745899&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B57">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_8_sn_GDH1N5UV5GTBS4H15E3LEGC01KJJS3AO_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=8&amp;flavor=cors&amp;vi=KPMKUSBCKUGCOCUCDALMKUVIQPPNADJP-0&amp;modifiedSince=1718215562229&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1068745899&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B58">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B58"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B54"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://medical-preview.abbviepro.com/ca/fr.html</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/basic-login/jcr:content</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+      </c>
+      <c r="B5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://medical-preview.abbviepro.com/ca/fr.html</v>
+      </c>
+      <c r="B6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://medical-preview.abbviepro.com/ca/fr/everest1.html</v>
+      </c>
+      <c r="B7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://api.piap.abbvie.net/auth/abbvie-id/login?appName=ABBVIEPRO-MEDICAL&amp;country=CA&amp;language=FR&amp;appEnvironmentName=PREVIEW&amp;redirectPath=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fca%2Ffr%2Feverest1.html</v>
+      </c>
+      <c r="B8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D80_sn_D6R7DH0FUG4917CQPL6OQ1778BJQCM22&amp;svrid=-80&amp;flavor=cors&amp;vi=PRUTMPKWKWHLVTKHRAMNCJWFUMPPCGTD-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3821569305&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D80_sn_D6R7DH0FUG4917CQPL6OQ1778BJQCM22&amp;svrid=-80&amp;flavor=cors&amp;vi=PRUTMPKWKWHLVTKHRAMNCJWFUMPPCGTD-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3575135718&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AppRouterMVN</v>
+      </c>
+      <c r="B11">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/services/apexrest/v1/branding/oauth2/authorize/AID-0000100/locale/fr-CA?client_id=3MVG9lcxCTdG2VbsLL3yIc_u01nyEenIppGEqkf8OB8JDTmT9_AUCO1p7m.602Exj3uS8eF73yRsSphSWCyYR&amp;scope=openid%20refresh_token%20api%20custom_permissions&amp;response_type=code&amp;redirect_uri=https://medical-preview.abbviepro.com/auth.login.success.html&amp;state=country_ca:language_fr:appName_abbviepro-medical:redirectPath_https://medical-preview.abbviepro.com/ca/fr/everest1.html:properties_:key_DNSBDilhbi3578WXGrdd</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AuthRouterMVN?startURL=%2FAppRouterMVN</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login?startURL=%2FAppRouterMVN</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/VFState.js</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/perf/stub.js</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/NetworkTracking.js</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1699262264250/ui-sfdc-javascript-impl/SfdcCore.js</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1589314309000/FontAwesome/css/all.css</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/css/bootstrap.min.css</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/picklist4.js</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://assets.ctfassets.net/k0qxrv0io7m9/O7S9wEJti4WiUNZnC3Leo/8de3a4461df6aa3cc20f78350a295eaa/bootstrap.min.css</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://assets.ctfassets.net/k0qxrv0io7m9/4mNGwAc9sWFCL8srhu630y/d34552ede25a6b593db2a3c7276df538/abbvie.css</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Roboto:wght@300;400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://assets.ctfassets.net/k0qxrv0io7m9/59tbS4kotYibm6N8c8hFeS/9f073bb5337c6768b053a8cf7dc4581d/bootstrap-material-design.css</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/faces/a4j/g/3_3_3.Finalorg.ajax4jsf.javascript.AjaxScript?rel=1720565364000</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery-3.7.1.min.js</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery.validate.min.js</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/popper.min.js</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap.min.js</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/arrive.min.js</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://images.ctfassets.net/k0qxrv0io7m9/2ezHoJn6ehtI8zwXPf879z/61f7a55574c5df2a3a7c37848d353bb6/AbbVieID_invert_neutral_copy.png</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/snackbar.min.js</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap-material-design.min.js</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://consent.trustarc.com/v2/notice/lkd017</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://www.google.com/recaptcha/api.js</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmEU9fBBc4.woff2</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v30/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmWUlfBBc4.woff2</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.google.com/recaptcha/api2/anchor?ar=1&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68&amp;co=aHR0cHM6Ly9pY2MtYWJidmllLS1pY2N1YXQuc2FuZGJveC5teS5zaXRlLmNvbTo0NDM.&amp;hl=en&amp;type=image&amp;v=rKbTvxTxwcw5VqzrtN-ICwWt&amp;size=normal&amp;cb=7p190zxhha88</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/styles__ltr.css</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/_ui/networks/tracking/NetworkTrackingServlet</v>
+      </c>
+      <c r="B44">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.gstatic.com/recaptcha/api2/logo_48.png</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://www.google.com/js/bg/mcpJVCBVxZk3n0PGNLnkxc-7IqhLecOYYoy5bihAZdw.js</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.google.com/recaptcha/api2/webworker.js?hl=en&amp;v=rKbTvxTxwcw5VqzrtN-ICwWt</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.google.com/recaptcha/api2/bframe?hl=en&amp;v=rKbTvxTxwcw5VqzrtN-ICwWt&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/styles__ltr.css</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B54"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
+  </sheetViews>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>url</v>
+      </c>
+      <c r="B1" t="str">
+        <v>status</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>https://medical-preview.abbviepro.com/ca/en.html</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/basic-login/jcr:content</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+      </c>
+      <c r="B6">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>https://medical-preview.abbviepro.com/ca/en.html</v>
+      </c>
+      <c r="B7">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>https://medical-preview.abbviepro.com/ca/en/everest.html</v>
+      </c>
+      <c r="B8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>https://api.piap.abbvie.net/auth/abbvie-id/login?appName=ABBVIEPRO-MEDICAL&amp;country=CA&amp;language=EN&amp;appEnvironmentName=PREVIEW&amp;redirectPath=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fca%2Fen%2Feverest.html</v>
+      </c>
+      <c r="B9">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D99_sn_A1CDO4AHNTDSJLIV7IL725NI2NQQ2BC5&amp;svrid=-99&amp;flavor=cors&amp;vi=RIMKCAARARQILICAOIAHPMVTINMUMFJK-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=4264631818&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D99_sn_A1CDO4AHNTDSJLIV7IL725NI2NQQ2BC5&amp;svrid=-99&amp;flavor=cors&amp;vi=RIMKCAARARQILICAOIAHPMVTINMUMFJK-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2962237435&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AppRouterMVN</v>
+      </c>
+      <c r="B12">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/services/apexrest/v1/branding/oauth2/authorize/AID-0000099/locale/en-CA?client_id=3MVG9lcxCTdG2VbsLL3yIc_u01pVfNW8Ki4p6FmoOlZIDt7GPS.tlgMD.YQ4tbAX0AWdLjkaCzXcUdcd3mEcN&amp;scope=openid%20refresh_token%20api%20custom_permissions&amp;response_type=code&amp;redirect_uri=https://medical-preview.abbviepro.com/auth.login.success.html&amp;state=country_ca:language_en:appName_abbviepro-medical:redirectPath_https://medical-preview.abbviepro.com/ca/en/everest.html:properties_:key_MRVVSjpvcw4441QITjif</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AuthRouterMVN?startURL=%2FAppRouterMVN</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login?startURL=%2FAppRouterMVN</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/perf/stub.js</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1589314309000/FontAwesome/css/all.css</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/css/bootstrap.min.css</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/picklist4.js</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/VFState.js</v>
+      </c>
+      <c r="B20">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/NetworkTracking.js</v>
+      </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1699262264250/ui-sfdc-javascript-impl/SfdcCore.js</v>
+      </c>
+      <c r="B22">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>https://assets.ctfassets.net/k0qxrv0io7m9/O7S9wEJti4WiUNZnC3Leo/8de3a4461df6aa3cc20f78350a295eaa/bootstrap.min.css</v>
+      </c>
+      <c r="B23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>https://assets.ctfassets.net/k0qxrv0io7m9/59tbS4kotYibm6N8c8hFeS/9f073bb5337c6768b053a8cf7dc4581d/bootstrap-material-design.css</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>https://fonts.googleapis.com/css2?family=Roboto:wght@300;400;500;700&amp;display=swap</v>
+      </c>
+      <c r="B25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>https://assets.ctfassets.net/k0qxrv0io7m9/4mNGwAc9sWFCL8srhu630y/d34552ede25a6b593db2a3c7276df538/abbvie.css</v>
+      </c>
+      <c r="B26">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/faces/a4j/g/3_3_3.Finalorg.ajax4jsf.javascript.AjaxScript?rel=1720565364000</v>
+      </c>
+      <c r="B27">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery-3.7.1.min.js</v>
+      </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery.validate.min.js</v>
+      </c>
+      <c r="B29">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/popper.min.js</v>
+      </c>
+      <c r="B30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap.min.js</v>
+      </c>
+      <c r="B31">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/arrive.min.js</v>
+      </c>
+      <c r="B32">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/snackbar.min.js</v>
+      </c>
+      <c r="B33">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap-material-design.min.js</v>
+      </c>
+      <c r="B34">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>https://images.ctfassets.net/k0qxrv0io7m9/2ezHoJn6ehtI8zwXPf879z/61f7a55574c5df2a3a7c37848d353bb6/AbbVieID_invert_neutral_copy.png</v>
+      </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>https://consent.trustarc.com/v2/notice/lkd017</v>
+      </c>
+      <c r="B36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>https://www.google.com/recaptcha/api.js</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmWUlfBBc4.woff2</v>
+      </c>
+      <c r="B38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v30/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmEU9fBBc4.woff2</v>
+      </c>
+      <c r="B40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
+      </c>
+      <c r="B41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>https://www.google.com/recaptcha/api2/anchor?ar=1&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68&amp;co=aHR0cHM6Ly9pY2MtYWJidmllLS1pY2N1YXQuc2FuZGJveC5teS5zaXRlLmNvbTo0NDM.&amp;hl=en&amp;type=image&amp;v=rKbTvxTxwcw5VqzrtN-ICwWt&amp;size=normal&amp;cb=m3w12zn00y4s</v>
+      </c>
+      <c r="B42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
+      </c>
+      <c r="B43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/_ui/networks/tracking/NetworkTrackingServlet</v>
+      </c>
+      <c r="B44">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/styles__ltr.css</v>
+      </c>
+      <c r="B45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>https://www.gstatic.com/recaptcha/api2/logo_48.png</v>
+      </c>
+      <c r="B46">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+      </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://www.google.com/js/bg/mcpJVCBVxZk3n0PGNLnkxc-7IqhLecOYYoy5bihAZdw.js</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://www.google.com/recaptcha/api2/webworker.js?hl=en&amp;v=rKbTvxTxwcw5VqzrtN-ICwWt</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://www.google.com/recaptcha/api2/bframe?hl=en&amp;v=rKbTvxTxwcw5VqzrtN-ICwWt&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/styles__ltr.css</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:B55"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B61"/>
   <sheetViews>
@@ -1361,15 +2245,15 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D80_sn_K27VI3K3FI2D9KH9DO8II9EJPKSBC5R3&amp;svrid=-80&amp;flavor=cors&amp;vi=UDNMRPBNEUPACTCJSQUCRMFPJFKHFWGW-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2301542611&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D80_sn_K27VI3K3FI2D9KH9DO8II9EJPKSBC5R3&amp;svrid=-80&amp;flavor=cors&amp;vi=UDNMRPBNEUPACTCJSQUCRMFPJFKHFWGW-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2797304200&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D29_sn_FT8TQVOA0DG56FBR9EEDJ1PD719867ER&amp;svrid=-29&amp;flavor=cors&amp;vi=AEGIHKNRGARJQWRCRFMAUQPITAPIIBAP-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3189172132&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1377,15 +2261,15 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D29_sn_FT8TQVOA0DG56FBR9EEDJ1PD719867ER&amp;svrid=-29&amp;flavor=cors&amp;vi=AEGIHKNRGARJQWRCRFMAUQPITAPIIBAP-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3564465776&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://medical-preview.abbviepro.com/sa/es1.html</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -1393,7 +2277,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -1401,7 +2285,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -1409,7 +2293,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -1417,7 +2301,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/sa/es1.html</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -1441,7 +2325,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -1449,7 +2333,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -1497,15 +2381,15 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B23">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -1513,7 +2397,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo-white-compact.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -1521,15 +2405,15 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
       </c>
       <c r="B26">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo-white-compact.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -1545,7 +2429,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_italic.woff2</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -1561,7 +2445,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_italic.woff2</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -1577,7 +2461,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro/gu/medical-abbvie-pro/immunoogy%20banner.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -1585,7 +2469,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro/gu/medical-abbvie-pro/immunoogy%20banner.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -1593,7 +2477,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/sa/ad/Pathogenesis%20of%20AD.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/overlay-component/clientlibs.min.js</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -1601,7 +2485,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/overlay-component/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/iframe-widget/clientlibs.min.js</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -1609,15 +2493,15 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/iframe-widget/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/sa/es1/_jcr_content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629684184-AbbVie-Pro-Medical-logo-white.png</v>
       </c>
       <c r="B37">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/form-text/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/social-share/clientlibs.min.js</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -1625,7 +2509,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/social-share/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/sa/ad/Pathogenesis%20of%20AD.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -1633,7 +2517,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/rating-component/clientlibs.min.js</v>
+        <v>https://consent.trustarc.com/v2/notice/yp2stc</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -1641,18 +2525,18 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/moment-js.min.js</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/sa/es1/jcr:content/body/column_control_94011/par1-100col/webinar/image-extension/item_1.coreimg.jpg/1680944991716-Pathogenesis%20of%20AD.jpg</v>
       </c>
       <c r="B41">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/sa/es1/_jcr_content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629684184-AbbVie-Pro-Medical-logo-white.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/form-text/clientlibs.min.js</v>
       </c>
       <c r="B42">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43">
@@ -1673,7 +2557,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://consent.trustarc.com/v2/notice/yp2stc</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/rating-component/clientlibs.min.js</v>
       </c>
       <c r="B45">
         <v>200</v>
@@ -1681,15 +2565,15 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/sa/es1/jcr:content/body/column_control_94011/par1-100col/webinar/image-extension/item_1.coreimg.jpg/1680944991716-Pathogenesis%20of%20AD.jpg</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/moment-js.min.js</v>
       </c>
       <c r="B46">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/expand.png</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/sa/es1/jcr%3acontent/body/column_control_94011/par1-100col/webinar/image-extension/item_1.coreimg.jpg/1691997162281.jpg</v>
       </c>
       <c r="B47">
         <v>200</v>
@@ -1697,7 +2581,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/sa/es1/jcr:content</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/expand.png</v>
       </c>
       <c r="B48">
         <v>200</v>
@@ -1705,7 +2589,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/sa/es1/jcr%3acontent/body/column_control_94011/par1-100col/webinar/image-extension/item_1.coreimg.jpg/1691997162281.jpg</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/sa/es1/jcr:content</v>
       </c>
       <c r="B49">
         <v>200</v>
@@ -1721,7 +2605,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://players.brightcove.net/2157889324001/default_default/index.html?videoId=6333353962112</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D29_sn_FT8TQVOA0DG56FBR9EEDJ1PD719867ER&amp;svrid=-29&amp;flavor=cors&amp;vi=AEGIHKNRGARJQWRCRFMAUQPITAPIIBAP-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fsa%2Fes1.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=187091843&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B51">
         <v>200</v>
@@ -1729,15 +2613,15 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>blob:https://players.brightcove.net/2c540189-51a2-47e1-acb3-2f52244e8ba1</v>
+        <v>https://players.brightcove.net/2157889324001/default_default/index.html?videoId=6333353962112</v>
       </c>
       <c r="B52">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>blob:https://players.brightcove.net/162aeb40-17b5-4e79-a313-9edfa56b6c8d</v>
+        <v>blob:https://players.brightcove.net/45dfd1f6-6c70-4b36-93c4-f7aac7e96e55</v>
       </c>
       <c r="B53">
         <v>206</v>
@@ -1745,7 +2629,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>blob:https://players.brightcove.net/695a9027-6227-4168-a2f9-fab041d4e98f</v>
+        <v>blob:https://players.brightcove.net/5502e5ce-62b3-47f9-a24e-c3391c1af5c8</v>
       </c>
       <c r="B54">
         <v>206</v>
@@ -1753,7 +2637,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>blob:https://players.brightcove.net/fcf11190-501e-426c-a28c-a344d1fd7bb6</v>
+        <v>blob:https://players.brightcove.net/a6d30cbc-d9f5-40ba-ac39-c9eb83c0347e</v>
       </c>
       <c r="B55">
         <v>206</v>
@@ -1761,15 +2645,15 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>blob:https://players.brightcove.net/6e69741e-36b5-46d4-b2ed-431ce397ccbb</v>
+        <v>blob:https://players.brightcove.net/4522ae41-801a-48bf-afe5-251a48c791f7</v>
       </c>
       <c r="B56">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>https://vjs.zencdn.net/vttjs/0.12.5/vtt.global.min.js</v>
+        <v>blob:https://players.brightcove.net/2183fb83-4532-452a-b8cd-b453594b04b2</v>
       </c>
       <c r="B57">
         <v>200</v>
@@ -1777,7 +2661,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D80_sn_K27VI3K3FI2D9KH9DO8II9EJPKSBC5R3&amp;svrid=-80&amp;flavor=cors&amp;vi=UDNMRPBNEUPACTCJSQUCRMFPJFKHFWGW-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fsa%2Fes1.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2417080287&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://vjs.zencdn.net/vttjs/0.12.5/vtt.global.min.js</v>
       </c>
       <c r="B58">
         <v>200</v>
@@ -1785,7 +2669,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D80_sn_K27VI3K3FI2D9KH9DO8II9EJPKSBC5R3&amp;svrid=-80&amp;flavor=cors&amp;vi=UDNMRPBNEUPACTCJSQUCRMFPJFKHFWGW-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fsa%2Fes1.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2258839819&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_FT8TQVOA0DG56FBR9EEDJ1PD719867ER_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=AEGIHKNRGARJQWRCRFMAUQPITAPIIBAP-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fsa%2Fes1.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=4033975760&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B59">
         <v>200</v>
@@ -1814,9 +2698,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B198"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1831,7 +2715,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://medical-preview.abbviepro.com/ca/en.html</v>
+        <v>https://medical-preview.abbviepro.com/us/en.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -1839,7 +2723,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/basic-login/jcr:content</v>
+        <v>https://preview.abbviescience.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/us/en/basic-login/jcr:content</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1847,7 +2731,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://preview.abbviescience.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B4">
         <v>200</v>
@@ -1855,15 +2739,15 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://preview.abbviescience.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D63_sn_KRRT42P3QRISS8M4FS21518G151GCJU9&amp;svrid=-63&amp;flavor=cors&amp;vi=PNBHMMUVBGAHKTMUFMHMFVMCFAUKOKCH-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1332084041&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D5_sn_7HQOMRRJGLGVJC0440L94KPE6Q3MG9N6&amp;svrid=-5&amp;flavor=cors&amp;vi=RRRNPMMSFHBRAFEPSRHOULLNNCUHAQFH-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=793636289&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -1871,7 +2755,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D63_sn_KRRT42P3QRISS8M4FS21518G151GCJU9&amp;svrid=-63&amp;flavor=cors&amp;vi=PNBHMMUVBGAHKTMUFMHMFVMCFAUKOKCH-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3667908376&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D5_sn_7HQOMRRJGLGVJC0440L94KPE6Q3MG9N6&amp;svrid=-5&amp;flavor=cors&amp;vi=RRRNPMMSFHBRAFEPSRHOULLNNCUHAQFH-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1295306990&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -1879,31 +2763,31 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://medical-preview.abbviepro.com/ca/en/everest.html</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
       </c>
       <c r="B9">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://api.piap.abbvie.net/auth/abbvie-id/login?appName=ABBVIEPRO-MEDICAL&amp;country=CA&amp;language=EN&amp;appEnvironmentName=PREVIEW&amp;redirectPath=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fca%2Fen%2Feverest.html</v>
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
       </c>
       <c r="B10">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/services/apexrest/v1/branding/oauth2/authorize/AID-0000099/locale/en-CA?client_id=3MVG9lcxCTdG2VbsLL3yIc_u01pVfNW8Ki4p6FmoOlZIDt7GPS.tlgMD.YQ4tbAX0AWdLjkaCzXcUdcd3mEcN&amp;scope=openid%20refresh_token%20api%20custom_permissions&amp;response_type=code&amp;redirect_uri=https://medical-preview.abbviepro.com/auth.login.success.html&amp;state=country_ca:language_en:appName_abbviepro-medical:redirectPath_https://medical-preview.abbviepro.com/ca/en/everest.html:properties_:key_BPGQSqgltz5140PAImie</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -1911,15 +2795,15 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AppRouterMVN</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
       </c>
       <c r="B12">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AuthRouterMVN?startURL=%2FAppRouterMVN</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -1927,7 +2811,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login?startURL=%2FAppRouterMVN</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -1935,7 +2819,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1589314309000/FontAwesome/css/all.css</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -1943,7 +2827,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/perf/stub.js</v>
+        <v>https://preview.abbviescience.com/</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -1951,7 +2835,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/picklist4.js</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -1959,7 +2843,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/VFState.js</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -1967,7 +2851,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/NetworkTracking.js</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -1975,7 +2859,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/css/bootstrap.min.css</v>
+        <v>https://consent.trustarc.com/v2/notice/i8e2va</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -1983,7 +2867,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1699262264250/ui-sfdc-javascript-impl/SfdcCore.js</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -1991,7 +2875,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/O7S9wEJti4WiUNZnC3Leo/8de3a4461df6aa3cc20f78350a295eaa/bootstrap.min.css</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Heading%20Hematological.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -1999,7 +2883,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://www.google.com/recaptcha/api.js</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Immuno-Oncology%20background.png/_jcr_content/renditions/original</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -2007,7 +2891,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/59tbS4kotYibm6N8c8hFeS/9f073bb5337c6768b053a8cf7dc4581d/bootstrap-material-design.css</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -2015,7 +2899,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/4mNGwAc9sWFCL8srhu630y/d34552ede25a6b593db2a3c7276df538/abbvie.css</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify-white.png</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -2023,7 +2907,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Roboto:wght@300;400;500;700&amp;display=swap</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/logo-header-02.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -2031,7 +2915,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/faces/a4j/g/3_3_3.Finalorg.ajax4jsf.javascript.AjaxScript?rel=1718232025000</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav-white.png</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -2039,7 +2923,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery-3.7.1.min.js</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -2047,7 +2931,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery.validate.min.js</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Tumor%20Intrinsic%20background.png/_jcr_content/renditions/original</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -2055,7 +2939,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap.min.js</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -2063,7 +2947,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/popper.min.js</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -2071,7 +2955,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/arrive.min.js</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Heading%20Solid%20Tumors.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -2079,7 +2963,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/snackbar.min.js</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -2087,7 +2971,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap-material-design.min.js</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Venetoclax.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -2095,7 +2979,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://images.ctfassets.net/k0qxrv0io7m9/2ezHoJn6ehtI8zwXPf879z/61f7a55574c5df2a3a7c37848d353bb6/AbbVieID_invert_neutral_copy.png</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Ibrutinib.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -2103,7 +2987,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-319.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -2111,7 +2995,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmWUlfBBc4.woff2</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-525.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -2119,7 +3003,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmEU9fBBc4.woff2</v>
+        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -2127,7 +3011,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/Tumor%20Intrinsic%20Small.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -2135,7 +3019,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://consent.trustarc.com/v2/notice/lkd017</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-453.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -2143,7 +3027,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.google.com/recaptcha/api2/anchor?ar=1&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68&amp;co=aHR0cHM6Ly9pY2MtYWJidmllLS1pY2N1YXQuc2FuZGJveC5teS5zaXRlLmNvbTo0NDM.&amp;hl=en&amp;type=image&amp;v=9pvHvq7kSOTqqZusUzJ6ewaF&amp;size=normal&amp;cb=fzbh7alte8er</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
       </c>
       <c r="B41">
         <v>200</v>
@@ -2151,7 +3035,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -2159,7 +3043,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
       </c>
       <c r="B43">
         <v>200</v>
@@ -2167,7 +3051,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/styles__ltr.css</v>
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
       </c>
       <c r="B44">
         <v>200</v>
@@ -2175,7 +3059,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://www.gstatic.com/recaptcha/api2/logo_48.png</v>
+        <v>https://consent.trustarc.com/v2/asset/15:22:53.786v8irmh_AbbVieID_transp_logo.png</v>
       </c>
       <c r="B45">
         <v>200</v>
@@ -2183,7 +3067,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://www.google.com/js/bg/YiMnlwYAPK-5JOvV4HgQVh4BjdfeuDlm7M1GgLf3u0w.js</v>
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
       </c>
       <c r="B46">
         <v>200</v>
@@ -2191,7 +3075,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABB-101.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B47">
         <v>200</v>
@@ -2199,23 +3083,23 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://www.google.com/recaptcha/api2/webworker.js?hl=en&amp;v=9pvHvq7kSOTqqZusUzJ6ewaF</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=i8e2va&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6763517906748466&amp;session=2bb596d9-9e15-4cdd-b6e4-a297a908d028&amp;userType=NEW</v>
       </c>
       <c r="B48">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=i8e2va&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6049018704004594&amp;session=2bb596d9-9e15-4cdd-b6e4-a297a908d028&amp;userType=NEW</v>
       </c>
       <c r="B49">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://www.google.com/recaptcha/api2/bframe?hl=en&amp;v=9pvHvq7kSOTqqZusUzJ6ewaF&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD123.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B50">
         <v>200</v>
@@ -2223,7 +3107,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
+        <v>https://preview.abbviescience.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B51">
         <v>200</v>
@@ -2231,7 +3115,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/styles__ltr.css</v>
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/PVEK.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B52">
         <v>200</v>
@@ -2239,7 +3123,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=i8e2va&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.abbviescience.com%2F&amp;category=</v>
       </c>
       <c r="B53">
         <v>200</v>
@@ -2247,22 +3131,1174 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/_ui/networks/tracking/NetworkTrackingServlet</v>
+        <v>https://preview.abbviescience.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/us/en/jcr:content</v>
       </c>
       <c r="B54">
-        <v>204</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/BCL-2%20Inhibitor.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD19.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B56">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/BTK%20Degrader.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B57">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/MALT1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B58">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/BTK%20Inhibitor.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B59">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/IMGN-151.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B60">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/MIRV.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B61">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Teliso-V.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B62">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-400.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B63">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-969.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B64">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-706.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B65">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/FR%CE%B1%20DM4%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B66">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/FR%CE%B1%20DM21Biparatopic%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B67">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/c-MetMMAEADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B68">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/c-MetTOP1i%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B69">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/Immuno-Oncology%20Small.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/PSMA%20-%20STEAP1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B71">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/SEZ6%20Top1i%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B72">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CLBR001%20+%20SWI019.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B73">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Epcoritamab.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B74">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-383.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B75">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD3%20x%20CD20%20BsAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD3%20X%20BCMA%20BsAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B77">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-303.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD19%20sCAR%20T.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-CLS-579.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Livmoniplimab.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Budigalimab.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-514.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B83">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-CLS-484.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B84">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/TTX-030.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B85">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/PTPN2-N1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B86">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/PD-1%20mAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B87">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/GARP%20-%20TGF.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B88">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/c-Met%20TriNKET.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B89">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/CCR8%20mAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B90">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/CD39%20mAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B91">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B92">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/logo-footer.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B93">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/footer%20separator.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B94">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1688484483694-logo-header-02.png</v>
+      </c>
+      <c r="B95">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D5_sn_7HQOMRRJGLGVJC0440L94KPE6Q3MG9N6&amp;svrid=-5&amp;flavor=cors&amp;vi=RRRNPMMSFHBRAFEPSRHOULLNNCUHAQFH-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=504378942&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B96">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715765602317-Heading%20Hematological.png</v>
+      </c>
+      <c r="B97">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715765685155-Heading%20Solid%20Tumors.png</v>
+      </c>
+      <c r="B98">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1688484543935.png</v>
+      </c>
+      <c r="B99">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715765575665-Venetoclax.png</v>
+      </c>
+      <c r="B100">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1754668049/item_1.coreimg.png/1715765573799-Ibrutinib.png</v>
+      </c>
+      <c r="B101">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_197664306/item_1.coreimg.png/1715765570837-ABBV-319.png</v>
+      </c>
+      <c r="B102">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1827131568/item_1.coreimg.png/1715765570495-ABBV-453.png</v>
+      </c>
+      <c r="B103">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2126162455/item_1.coreimg.png/1715765569956-ABB-101.png</v>
+      </c>
+      <c r="B104">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1754668049/item_1.coreimg.png/1715766293939.png</v>
+      </c>
+      <c r="B105">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_197664306/item_1.coreimg.png/1715766303991.png</v>
+      </c>
+      <c r="B106">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1827131568/item_1.coreimg.png/1715766287074.png</v>
+      </c>
+      <c r="B107">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1525083749/item_1.coreimg.png/1715765573351-CD123.png</v>
+      </c>
+      <c r="B108">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1931084129/item_1.coreimg.png/1715765571728-ABBV-525.png</v>
+      </c>
+      <c r="B109">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715766266571.png</v>
+      </c>
+      <c r="B110">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715766273526.png</v>
+      </c>
+      <c r="B111">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715766263374.png</v>
+      </c>
+      <c r="B112">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2126162455/item_1.coreimg.png/1715766299904.png</v>
+      </c>
+      <c r="B113">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_636464192/item_1.coreimg.png/1715765574433-PVEK.png</v>
+      </c>
+      <c r="B114">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715765572100-BCL-2%20Inhibitor.png</v>
+      </c>
+      <c r="B115">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1525083749/item_1.coreimg.png/1715766362565.png</v>
+      </c>
+      <c r="B116">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1931084129/item_1.coreimg.png/1715766308756.png</v>
+      </c>
+      <c r="B117">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_636464192/item_1.coreimg.png/1715766312845.png</v>
+      </c>
+      <c r="B118">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1760908249/item_1.coreimg.png/1715765572100-BCL-2%20Inhibitor.png</v>
+      </c>
+      <c r="B119">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715766320889.png</v>
+      </c>
+      <c r="B120">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_104141056/item_1.coreimg.png/1715765572765-BTK%20Inhibitor.png</v>
+      </c>
+      <c r="B121">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_941819890/item_1.coreimg.png/1715765572769-BTK%20Degrader.png</v>
+      </c>
+      <c r="B122">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715770024070-MIRV.png</v>
+      </c>
+      <c r="B123">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1741814200/item_1.coreimg.png/1715765572988-CD19.png</v>
+      </c>
+      <c r="B124">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1760908249/item_1.coreimg.png/1715766320889.png</v>
+      </c>
+      <c r="B125">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1551711446/item_1.coreimg.png/1715769236010-Teliso-V.png</v>
+      </c>
+      <c r="B126">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1883121670/item_1.coreimg.png/1715769229295-ABBV-400.png</v>
+      </c>
+      <c r="B127">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_65906452/item_1.coreimg.png/1715769229687-ABBV-706.png</v>
+      </c>
+      <c r="B128">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1551711446/item_1.coreimg.png/1715769322371.png</v>
+      </c>
+      <c r="B129">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1342577906/item_1.coreimg.png/1715765574118-MALT1.png</v>
+      </c>
+      <c r="B130">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_110809592/item_1.coreimg.png/1715769233065-IMGN-151.png</v>
+      </c>
+      <c r="B131">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1883121670/item_1.coreimg.png/1715769331800.png</v>
+      </c>
+      <c r="B132">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_104141056/item_1.coreimg.png/1715766339845.png</v>
+      </c>
+      <c r="B133">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_65906452/item_1.coreimg.png/1715769336923.png</v>
+      </c>
+      <c r="B134">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_941819890/item_1.coreimg.png/1715766343700.png</v>
+      </c>
+      <c r="B135">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1741814200/item_1.coreimg.png/1715766347850.png</v>
+      </c>
+      <c r="B136">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769232326-FR%CE%B1%20DM4%20ADC.png</v>
+      </c>
+      <c r="B137">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_110809592/item_1.coreimg.png/1715769313504.png</v>
+      </c>
+      <c r="B138">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769400363.png</v>
+      </c>
+      <c r="B139">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_380484993/item_1.coreimg.png/1715769229709-ABBV-969.png</v>
+      </c>
+      <c r="B140">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1342577906/item_1.coreimg.png/1715766357034.png</v>
+      </c>
+      <c r="B141">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_989051220/item_1.coreimg.png/1715769232455-FR%CE%B1%20DM21Biparatopic%20ADC.png</v>
+      </c>
+      <c r="B142">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_797232505/item_1.coreimg.png/1715769232330-c-MetMMAEADC.png</v>
+      </c>
+      <c r="B143">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1491951430/item_1.coreimg.png/1715769231709-c-MetTOP1i%20ADC.png</v>
+      </c>
+      <c r="B144">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_800201096/item_1.coreimg.png/1715769234831-SEZ6%20Top1i%20ADC.png</v>
+      </c>
+      <c r="B145">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1421472094/item_1.coreimg.png/1715769234177-PSMA%20-%20STEAP1.png</v>
+      </c>
+      <c r="B146">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_989051220/item_1.coreimg.png/1715769406740.png</v>
+      </c>
+      <c r="B147">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1491951430/item_1.coreimg.png/1715769426297.png</v>
+      </c>
+      <c r="B148">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715766439839-Epcoritamab.png</v>
+      </c>
+      <c r="B149">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_800201096/item_1.coreimg.png/1715769474478.png</v>
+      </c>
+      <c r="B150">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_380484993/item_1.coreimg.png/1715769343865.png</v>
+      </c>
+      <c r="B151">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_441705926/item_1.coreimg.png/1715766446538-ABBV-383.png</v>
+      </c>
+      <c r="B152">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2100548286/item_1.coreimg.png/1715766439628-CLBR001%20+%20SWI019.png</v>
+      </c>
+      <c r="B153">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715766446660-CD3%20x%20CD20%20BsAb.png</v>
+      </c>
+      <c r="B154">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715766565737.png</v>
+      </c>
+      <c r="B155">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_405963686/item_1.coreimg.png/1715766446701-CD3%20X%20BCMA%20BsAb.png</v>
+      </c>
+      <c r="B156">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_441705926/item_1.coreimg.png/1715766560130.png</v>
+      </c>
+      <c r="B157">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2100548286/item_1.coreimg.png/1715766563428.png</v>
+      </c>
+      <c r="B158">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1421472094/item_1.coreimg.png/1715769479023.png</v>
+      </c>
+      <c r="B159">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_405963686/item_1.coreimg.png/1715766571805.png</v>
+      </c>
+      <c r="B160">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension/item_1.coreimg.png/1715769230889-Budigalimab.png</v>
+      </c>
+      <c r="B161">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_1022804980/item_1.coreimg.png/1715769228755-ABBV-303.png</v>
+      </c>
+      <c r="B162">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715766568816.png</v>
+      </c>
+      <c r="B163">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_1022804980/item_1.coreimg.png/1715769770410.png</v>
+      </c>
+      <c r="B164">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715769233165-Livmoniplimab.png</v>
+      </c>
+      <c r="B165">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_976811614/item_1.coreimg.png/1715769230815-ABBV-CLS-579.png</v>
+      </c>
+      <c r="B166">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_2136283967/item_1.coreimg.png/1715769236577-TTX-030.png</v>
+      </c>
+      <c r="B167">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_2007089479/item_1.coreimg.png/1715766439523-CD19%20sCAR%20T.png</v>
+      </c>
+      <c r="B168">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_320819027/item_1.coreimg.png/1715769229098-ABBV-514.png</v>
+      </c>
+      <c r="B169">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_474047910/item_1.coreimg.png/1715769230413-ABBV-CLS-484.png</v>
+      </c>
+      <c r="B170">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension/item_1.coreimg.png/1715769763023.png</v>
+      </c>
+      <c r="B171">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_2007089479/item_1.coreimg.png/1715766574159.png</v>
+      </c>
+      <c r="B172">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_2136283967/item_1.coreimg.png/1715769838384.png</v>
+      </c>
+      <c r="B173">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_976811614/item_1.coreimg.png/1715769786029.png</v>
+      </c>
+      <c r="B174">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_320819027/item_1.coreimg.png/1715769775043.png</v>
+      </c>
+      <c r="B175">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_474047910/item_1.coreimg.png/1715769781393.png</v>
+      </c>
+      <c r="B176">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_797232505/item_1.coreimg.png/1715769423848.png</v>
+      </c>
+      <c r="B177">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_935191685/item_1.coreimg.png/1715769231579-c-Met%20TriNKET.png</v>
+      </c>
+      <c r="B178">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1810158656/item_1.coreimg.png/1715769230957-CCR8%20mAb.png</v>
+      </c>
+      <c r="B179">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715769751819.png</v>
+      </c>
+      <c r="B180">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>https://preview.abbviescience.com/content/experience-fragments/abbvie-pro-medical/usa/hcp-overlay-v21/master/jcr:content/root/audience_selection_c/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+      </c>
+      <c r="B181">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_28654129/item_1.coreimg.png/1715769572283-PTPN2-N1.png</v>
+      </c>
+      <c r="B182">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_382429153/item_1.coreimg.png/1715769572283-PTPN2-N1.png</v>
+      </c>
+      <c r="B183">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1416536594/item_1.coreimg.png/1715769231548-CD39%20mAb.png</v>
+      </c>
+      <c r="B184">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769233069-GARP%20-%20TGF.png</v>
+      </c>
+      <c r="B185">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_28654129/item_1.coreimg.png/1715770035932.png</v>
+      </c>
+      <c r="B186">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_2092201353/item_1.coreimg.png/1715769234083-PD-1%20mAb.png</v>
+      </c>
+      <c r="B187">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1416536594/item_1.coreimg.png/1715770059775.png</v>
+      </c>
+      <c r="B188">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769905958.png</v>
+      </c>
+      <c r="B189">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_935191685/item_1.coreimg.png/1715770001867.png</v>
+      </c>
+      <c r="B190">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1810158656/item_1.coreimg.png/1715770015447.png</v>
+      </c>
+      <c r="B191">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_382429153/item_1.coreimg.png/1715770031086.png</v>
+      </c>
+      <c r="B192">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>https://preview.abbviescience.com/content/experience-fragments/abbvie-pro-medical/usa/hcp-overlay-v21/master/jcr%3acontent/root/audience_selection_c/image-extension/item_1.coreimg.png/1694175398115.png</v>
+      </c>
+      <c r="B193">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_2092201353/item_1.coreimg.png/1715769921855.png</v>
+      </c>
+      <c r="B194">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_7HQOMRRJGLGVJC0440L94KPE6Q3MG9N6_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=RRRNPMMSFHBRAFEPSRHOULLNNCUHAQFH-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=710389842&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B195">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_7HQOMRRJGLGVJC0440L94KPE6Q3MG9N6_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=RRRNPMMSFHBRAFEPSRHOULLNNCUHAQFH-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=710389842&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B196">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_7HQOMRRJGLGVJC0440L94KPE6Q3MG9N6_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=RRRNPMMSFHBRAFEPSRHOULLNNCUHAQFH-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2903002500&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B197">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_7HQOMRRJGLGVJC0440L94KPE6Q3MG9N6_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=RRRNPMMSFHBRAFEPSRHOULLNNCUHAQFH-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2903002500&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B198">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B198"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2277,7 +4313,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://medical-preview.abbviepro.com/ca/fr.html</v>
+        <v>https://medical-preview.abbviepro.com/gr/el.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -2301,15 +4337,15 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D23_sn_AQIU4U9DB71QD3BAI8E017KG68T0S8CJ&amp;svrid=-23&amp;flavor=cors&amp;vi=CUODEEFQSWPMAWMGRWCKHSJUSVMTMMEF-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=456814857&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D89_sn_1RM546MVPC8JU22F69GINE4GFNI94GFI&amp;svrid=-89&amp;flavor=cors&amp;vi=THDQFELFTKKLSSAJUVVJFHUFGCUPUIHC-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3530313657&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B6">
         <v>200</v>
@@ -2317,31 +4353,31 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D89_sn_1RM546MVPC8JU22F69GINE4GFNI94GFI&amp;svrid=-89&amp;flavor=cors&amp;vi=THDQFELFTKKLSSAJUVVJFHUFGCUPUIHC-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3473528501&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B7">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://medical-preview.abbviepro.com/ca/fr/everest1.html</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://api.piap.abbvie.net/auth/abbvie-id/login?appName=ABBVIEPRO-MEDICAL&amp;country=CA&amp;language=FR&amp;appEnvironmentName=PREVIEW&amp;redirectPath=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fca%2Ffr%2Feverest1.html</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B9">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/services/apexrest/v1/branding/oauth2/authorize/AID-0000100/locale/fr-CA?client_id=3MVG9lcxCTdG2VbsLL3yIc_u01nyEenIppGEqkf8OB8JDTmT9_AUCO1p7m.602Exj3uS8eF73yRsSphSWCyYR&amp;scope=openid%20refresh_token%20api%20custom_permissions&amp;response_type=code&amp;redirect_uri=https://medical-preview.abbviepro.com/auth.login.success.html&amp;state=country_ca:language_fr:appName_abbviepro-medical:redirectPath_https://medical-preview.abbviepro.com/ca/fr/everest1.html:properties_:key_NUOOBkaklq8639MXChsk</v>
+        <v>https://medical-preview.abbviepro.com/gr/el.html</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -2349,15 +4385,15 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AppRouterMVN</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
       </c>
       <c r="B11">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AuthRouterMVN?startURL=%2FAppRouterMVN</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -2365,23 +4401,23 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login?startURL=%2FAppRouterMVN</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/59tbS4kotYibm6N8c8hFeS/9f073bb5337c6768b053a8cf7dc4581d/bootstrap-material-design.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/4mNGwAc9sWFCL8srhu630y/d34552ede25a6b593db2a3c7276df538/abbvie.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -2389,7 +4425,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://www.google.com/recaptcha/api.js</v>
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -2397,7 +4433,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/O7S9wEJti4WiUNZnC3Leo/8de3a4461df6aa3cc20f78350a295eaa/bootstrap.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -2405,7 +4441,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Roboto:wght@300;400;500;700&amp;display=swap</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -2413,7 +4449,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1589314309000/FontAwesome/css/all.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -2421,7 +4457,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/css/bootstrap.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -2429,7 +4465,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/perf/stub.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -2437,15 +4473,15 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1699262264250/ui-sfdc-javascript-impl/SfdcCore.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B22">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/picklist4.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -2453,7 +4489,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/VFState.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -2461,7 +4497,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/NetworkTracking.js</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -2469,7 +4505,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery-3.7.1.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -2477,7 +4513,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://images.ctfassets.net/k0qxrv0io7m9/2ezHoJn6ehtI8zwXPf879z/61f7a55574c5df2a3a7c37848d353bb6/AbbVieID_invert_neutral_copy.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -2485,15 +4521,15 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery.validate.min.js</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gr/el/jcr:content/header/global_header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
       </c>
       <c r="B28">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/faces/a4j/g/3_3_3.Finalorg.ajax4jsf.javascript.AjaxScript?rel=1718232025000</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/gr/el/pink-flask.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -2501,7 +4537,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/popper.min.js</v>
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -2509,7 +4545,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap.min.js</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/gr/el/jcr:content</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -2517,7 +4553,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/snackbar.min.js</v>
+        <v>https://consent.trustarc.com/v2/notice/0fpbwt</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -2525,7 +4561,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/arrive.min.js</v>
+        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -2533,7 +4569,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap-material-design.min.js</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -2541,7 +4577,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://consent.trustarc.com/v2/notice/lkd017</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gr/el/jcr%3acontent/header/global_header/mega-menu/image-extension/item_1.coreimg.png/1700827859422.png</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -2549,7 +4585,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
+        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -2557,7 +4593,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmWUlfBBc4.woff2</v>
+        <v>https://consent.trustarc.com/v2/asset/15:16:39.915r07dsr_AbbVieID_transp_logo.png</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -2565,7 +4601,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmEU9fBBc4.woff2</v>
+        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=0fpbwt&amp;referer=&amp;fullURL=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgr%2Fel.html&amp;category=</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -2573,23 +4609,23 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=0fpbwt&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.6644639408275412&amp;session=d4770b77-4585-44c8-b269-6235d0e70f6a&amp;userType=NEW</v>
       </c>
       <c r="B39">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://www.google.com/recaptcha/api2/anchor?ar=1&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68&amp;co=aHR0cHM6Ly9pY2MtYWJidmllLS1pY2N1YXQuc2FuZGJveC5teS5zaXRlLmNvbTo0NDM.&amp;hl=en&amp;type=image&amp;v=9pvHvq7kSOTqqZusUzJ6ewaF&amp;size=normal&amp;cb=5sri5qr4zdw6</v>
+        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=0fpbwt&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.47160036033537867&amp;session=d4770b77-4585-44c8-b269-6235d0e70f6a&amp;userType=NEW</v>
       </c>
       <c r="B40">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
       </c>
       <c r="B41">
         <v>200</v>
@@ -2597,7 +4633,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/styles__ltr.css</v>
+        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -2605,102 +4641,30 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://www.gstatic.com/recaptcha/api2/logo_48.png</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gr/el/jcr:content/footer/footer_area/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
       </c>
       <c r="B43">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://www.google.com/js/bg/YiMnlwYAPK-5JOvV4HgQVh4BjdfeuDlm7M1GgLf3u0w.js</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gr/el/jcr%3acontent/footer/footer_area/image-extension/item_1.coreimg.png/1685635293046.png</v>
       </c>
       <c r="B44">
         <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
-      </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login</v>
-      </c>
-      <c r="B46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>https://www.google.com/recaptcha/api2/webworker.js?hl=en&amp;v=9pvHvq7kSOTqqZusUzJ6ewaF</v>
-      </c>
-      <c r="B47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
-      </c>
-      <c r="B48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>https://www.google.com/recaptcha/api2/bframe?hl=en&amp;v=9pvHvq7kSOTqqZusUzJ6ewaF&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68</v>
-      </c>
-      <c r="B49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/styles__ltr.css</v>
-      </c>
-      <c r="B50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
-      </c>
-      <c r="B51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
-      </c>
-      <c r="B52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/_ui/networks/tracking/NetworkTrackingServlet</v>
-      </c>
-      <c r="B53">
-        <v>204</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B44"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B199"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2715,7 +4679,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://medical-preview.abbviepro.com/us/en.html</v>
+        <v>https://medical-preview.abbviepro.com/it/it.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -2723,7 +4687,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>https://preview.abbviescience.com/libs/granite/csrf/token.json</v>
+        <v>https://preview.everestitaly.it/libs/granite/csrf/token.json</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -2731,39 +4695,39 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>https://preview.abbviescience.com/libs/granite/csrf/token.json</v>
+        <v>https://preview.everestitaly.it/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=i8e2va&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.06226196241305182&amp;session=b56f8548-ecd6-4d27-9a1d-29375a3e39a1&amp;userType=NEW</v>
+        <v>https://preview.everestitaly.it/</v>
       </c>
       <c r="B5">
-        <v>202</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=i8e2va&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.1127598575867319&amp;session=b56f8548-ecd6-4d27-9a1d-29375a3e39a1&amp;userType=NEW</v>
+        <v>https://preview.everestitaly.it/it/everest.html</v>
       </c>
       <c r="B6">
-        <v>202</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=i8e2va&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.abbviescience.com%2Fbasic-login.html&amp;category=</v>
+        <v>https://api.piap.abbvie.net/auth/abbvie-id/login?appName=ABBVIEPRO-MEDICAL&amp;country=IT&amp;language=IT&amp;appEnvironmentName=PREVIEW&amp;redirectPath=https%3A%2F%2Fpreview.everestitaly.it%2Fit%2Feverest.html</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D11_sn_A1PI3KVEBS2EQF6QLP4L7M9SJLESVGUU&amp;svrid=-11&amp;flavor=cors&amp;vi=UPICLIRCKREPMMUBALMHHNFEHDFTUNLK-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=4191322394&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D23_sn_02HQHMIPRBNLTABT3B1UNVRA9O1NN3B8&amp;svrid=-23&amp;flavor=cors&amp;vi=EJDTLUKCPFHBVDFBJKRFMHPPICVBLLBI-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.everestitaly.it%2Fit%2Fbasic-login%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3042972259&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B8">
         <v>200</v>
@@ -2771,7 +4735,7 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://preview.abbviescience.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/us/en/basic-login/jcr:content</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D23_sn_02HQHMIPRBNLTABT3B1UNVRA9O1NN3B8&amp;svrid=-23&amp;flavor=cors&amp;vi=EJDTLUKCPFHBVDFBJKRFMHPPICVBLLBI-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.everestitaly.it%2Fit%2Fbasic-login%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2660449206&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -2779,23 +4743,23 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D11_sn_A1PI3KVEBS2EQF6QLP4L7M9SJLESVGUU&amp;svrid=-11&amp;flavor=cors&amp;vi=UPICLIRCKREPMMUBALMHHNFEHDFTUNLK-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=656532915&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AppRouterMVN</v>
       </c>
       <c r="B10">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://preview.abbviescience.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/services/apexrest/v1/branding/oauth2/authorize/AID-0000931/locale/it-IT?client_id=3MVG9lcxCTdG2VbsLL3yIc_u01jtE8j9jhvclSPcft8wSN8Uk3nRfr3XdsQaj_4yyzWh.L.Nz90sNKQMdm8Ff&amp;scope=openid%20refresh_token%20api%20custom_permissions&amp;response_type=code&amp;redirect_uri=https://preview.everestitaly.it/auth.login.success.html&amp;state=country_it:language_it:appName_abbviepro-medical:redirectPath_https://preview.everestitaly.it/it/everest.html:properties_:key_YDSZYffssb0480WELmaz</v>
       </c>
       <c r="B11">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://preview.abbviescience.com/</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AuthRouterMVN?startURL=%2FAppRouterMVN</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -2803,7 +4767,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login?startURL=%2FAppRouterMVN</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -2811,7 +4775,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+        <v>https://www.google.com/recaptcha/api.js</v>
       </c>
       <c r="B14">
         <v>200</v>
@@ -2819,7 +4783,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://fonts.googleapis.com/css2?family=Roboto:wght@300;400;500;700&amp;display=swap</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -2827,7 +4791,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+        <v>https://assets.ctfassets.net/k0qxrv0io7m9/O7S9wEJti4WiUNZnC3Leo/8de3a4461df6aa3cc20f78350a295eaa/bootstrap.min.css</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -2835,7 +4799,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify-white.png</v>
+        <v>https://assets.ctfassets.net/k0qxrv0io7m9/4mNGwAc9sWFCL8srhu630y/d34552ede25a6b593db2a3c7276df538/abbvie.css</v>
       </c>
       <c r="B17">
         <v>200</v>
@@ -2843,7 +4807,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav-white.png</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1589314309000/FontAwesome/css/all.css</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -2851,7 +4815,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/perf/stub.js</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -2859,7 +4823,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/NetworkTracking.js</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -2867,7 +4831,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/snackbar.min.js</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -2875,7 +4839,7 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/picklist4.js</v>
       </c>
       <c r="B22">
         <v>200</v>
@@ -2883,7 +4847,7 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/popper.min.js</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -2891,7 +4855,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+        <v>https://assets.ctfassets.net/k0qxrv0io7m9/59tbS4kotYibm6N8c8hFeS/9f073bb5337c6768b053a8cf7dc4581d/bootstrap-material-design.css</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -2899,7 +4863,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap.min.js</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -2907,7 +4871,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap-material-design.min.js</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -2915,7 +4879,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/css/bootstrap.min.css</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -2923,7 +4887,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/VFState.js</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -2931,7 +4895,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/arrive.min.js</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -2939,7 +4903,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://consent.trustarc.com/v2/notice/i8e2va</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery-3.7.1.min.js</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -2947,7 +4911,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery.validate.min.js</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -2955,7 +4919,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/Tumor%20Intrinsic%20Small.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1699262264250/ui-sfdc-javascript-impl/SfdcCore.js</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -2963,7 +4927,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-453.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/faces/a4j/g/3_3_3.Finalorg.ajax4jsf.javascript.AjaxScript?rel=1720565364000</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -2971,7 +4935,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Heading%20Solid%20Tumors.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://consent.trustarc.com/v2/notice/lkd017</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -2979,7 +4943,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Ibrutinib.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -2987,7 +4951,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Venetoclax.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.google.com/recaptcha/api2/anchor?ar=1&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68&amp;co=aHR0cHM6Ly9pY2MtYWJidmllLS1pY2N1YXQuc2FuZGJveC5teS5zaXRlLmNvbTo0NDM.&amp;hl=en&amp;type=image&amp;v=rKbTvxTxwcw5VqzrtN-ICwWt&amp;size=normal&amp;cb=v6dghko2pt3b</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -2995,7 +4959,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/BCL-2%20Inhibitor.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -3003,7 +4967,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CLBR001%20+%20SWI019.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/styles__ltr.css</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -3011,7 +4975,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/logo-header-02.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.gstatic.com/recaptcha/api2/logo_48.png</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -3019,7 +4983,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Heading%20Hematological.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.google.com/js/bg/mcpJVCBVxZk3n0PGNLnkxc-7IqhLecOYYoy5bihAZdw.js</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -3027,7 +4991,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/MIRV.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.google.com/recaptcha/api2/webworker.js?hl=en&amp;v=rKbTvxTxwcw5VqzrtN-ICwWt</v>
       </c>
       <c r="B41">
         <v>200</v>
@@ -3035,7 +4999,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-525.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -3043,7 +5007,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-706.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login</v>
       </c>
       <c r="B43">
         <v>200</v>
@@ -3051,7 +5015,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/FR%CE%B1%20DM21Biparatopic%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/styles__ltr.css</v>
       </c>
       <c r="B44">
         <v>200</v>
@@ -3059,7 +5023,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/c-MetTOP1i%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.gstatic.com/recaptcha/releases/rKbTvxTxwcw5VqzrtN-ICwWt/recaptcha__en.js</v>
       </c>
       <c r="B45">
         <v>200</v>
@@ -3067,7 +5031,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-319.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://www.google.com/recaptcha/api2/bframe?hl=en&amp;v=rKbTvxTxwcw5VqzrtN-ICwWt&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68</v>
       </c>
       <c r="B46">
         <v>200</v>
@@ -3075,15 +5039,15 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-400.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/_ui/networks/tracking/NetworkTrackingServlet</v>
       </c>
       <c r="B47">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD123.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmEU9fBBc4.woff2</v>
       </c>
       <c r="B48">
         <v>200</v>
@@ -3091,7 +5055,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmWUlfBBc4.woff2</v>
       </c>
       <c r="B49">
         <v>200</v>
@@ -3099,7 +5063,7 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Budigalimab.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://fonts.gstatic.com/s/roboto/v30/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
       </c>
       <c r="B50">
         <v>200</v>
@@ -3107,1206 +5071,22 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/SEZ6%20Top1i%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
       </c>
       <c r="B51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-969.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-CLS-484.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/PD-1%20mAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-303.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Livmoniplimab.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>https://preview.abbviescience.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
-      </c>
-      <c r="B57">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/Epcoritamab.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B58">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/GARP%20-%20TGF.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B59">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD3%20x%20CD20%20BsAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B60">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/PVEK.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B61">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/TTX-030.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B62">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABBV-383.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B63">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/FR%CE%B1%20DM4%20ADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B64">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD3%20X%20BCMA%20BsAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B65">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/footer%20separator.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B66">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-CLS-579.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B67">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/c-MetMMAEADC.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B68">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/Immuno-Oncology%20Small.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B69">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD19.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B70">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/CD39%20mAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B71">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/MALT1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B72">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B73">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
-      </c>
-      <c r="B74">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
-      </c>
-      <c r="B75">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
-      </c>
-      <c r="B76">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
-      </c>
-      <c r="B77">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="str">
-        <v>https://consent.trustarc.com/v2/asset/15:22:53.786v8irmh_AbbVieID_transp_logo.png</v>
-      </c>
-      <c r="B78">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
-      </c>
-      <c r="B79">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/BTK%20Inhibitor.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B80">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/BTK%20Degrader.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B81">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/CD19%20sCAR%20T.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B82">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/CCR8%20mAb.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B83">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/IMGN-151.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B84">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/hematologic-malignancies/ABB-101.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B85">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/ABBV-514.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B86">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/c-Met%20TriNKET.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B87">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/PSMA%20-%20STEAP1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B88">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/PTPN2-N1.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B89">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Teliso-V.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B90">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/logo-footer.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B91">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Tumor%20Intrinsic%20background.png/_jcr_content/renditions/original</v>
-      </c>
-      <c r="B92">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715765575665-Venetoclax.png</v>
-      </c>
-      <c r="B93">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="str">
-        <v>https://preview.abbviescience.com/content/dam/abbvie-pro-medical/abbvie-science/homepage-new/solid-tumors/Immuno-Oncology%20background.png/_jcr_content/renditions/original</v>
-      </c>
-      <c r="B94">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1754668049/item_1.coreimg.png/1715765573799-Ibrutinib.png</v>
-      </c>
-      <c r="B95">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1688484483694-logo-header-02.png</v>
-      </c>
-      <c r="B96">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1741814200/item_1.coreimg.png/1715765572988-CD19.png</v>
-      </c>
-      <c r="B97">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=i8e2va&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.18729516980603278&amp;session=b56f8548-ecd6-4d27-9a1d-29375a3e39a1&amp;userType=NEW</v>
-      </c>
-      <c r="B98">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715765602317-Heading%20Hematological.png</v>
-      </c>
-      <c r="B99">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715765572100-BCL-2%20Inhibitor.png</v>
-      </c>
-      <c r="B100">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1931084129/item_1.coreimg.png/1715765571728-ABBV-525.png</v>
-      </c>
-      <c r="B101">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1827131568/item_1.coreimg.png/1715765570495-ABBV-453.png</v>
-      </c>
-      <c r="B102">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_197664306/item_1.coreimg.png/1715765570837-ABBV-319.png</v>
-      </c>
-      <c r="B103">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715770024070-MIRV.png</v>
-      </c>
-      <c r="B104">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769232326-FR%CE%B1%20DM4%20ADC.png</v>
-      </c>
-      <c r="B105">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1883121670/item_1.coreimg.png/1715769229295-ABBV-400.png</v>
-      </c>
-      <c r="B106">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_380484993/item_1.coreimg.png/1715769229709-ABBV-969.png</v>
-      </c>
-      <c r="B107">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_636464192/item_1.coreimg.png/1715765574433-PVEK.png</v>
-      </c>
-      <c r="B108">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1525083749/item_1.coreimg.png/1715765573351-CD123.png</v>
-      </c>
-      <c r="B109">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715765685155-Heading%20Solid%20Tumors.png</v>
-      </c>
-      <c r="B110">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_989051220/item_1.coreimg.png/1715769232455-FR%CE%B1%20DM21Biparatopic%20ADC.png</v>
-      </c>
-      <c r="B111">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_65906452/item_1.coreimg.png/1715769229687-ABBV-706.png</v>
-      </c>
-      <c r="B112">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>https://preview.abbviescience.com/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B113">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1342577906/item_1.coreimg.png/1715765574118-MALT1.png</v>
-      </c>
-      <c r="B114">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=i8e2va&amp;referer=&amp;fullURL=https%3A%2F%2Fpreview.abbviescience.com%2F&amp;category=</v>
-      </c>
-      <c r="B115">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=i8e2va&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.23541945387753116&amp;session=b56f8548-ecd6-4d27-9a1d-29375a3e39a1&amp;userType=NEW</v>
-      </c>
-      <c r="B116">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1760908249/item_1.coreimg.png/1715765572100-BCL-2%20Inhibitor.png</v>
-      </c>
-      <c r="B117">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>https://preview.abbviescience.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/us/en/jcr:content</v>
-      </c>
-      <c r="B118">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1754668049/item_1.coreimg.png/1715766293939.png</v>
-      </c>
-      <c r="B119">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1741814200/item_1.coreimg.png/1715766347850.png</v>
-      </c>
-      <c r="B120">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715766263374.png</v>
-      </c>
-      <c r="B121">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715766273526.png</v>
-      </c>
-      <c r="B122">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1688484543935.png</v>
-      </c>
-      <c r="B123">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715766320889.png</v>
-      </c>
-      <c r="B124">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1883121670/item_1.coreimg.png/1715769331800.png</v>
-      </c>
-      <c r="B125">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1827131568/item_1.coreimg.png/1715766287074.png</v>
-      </c>
-      <c r="B126">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_380484993/item_1.coreimg.png/1715769343865.png</v>
-      </c>
-      <c r="B127">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_197664306/item_1.coreimg.png/1715766303991.png</v>
-      </c>
-      <c r="B128">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1525083749/item_1.coreimg.png/1715766362565.png</v>
-      </c>
-      <c r="B129">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715766266571.png</v>
-      </c>
-      <c r="B130">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_636464192/item_1.coreimg.png/1715766312845.png</v>
-      </c>
-      <c r="B131">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_989051220/item_1.coreimg.png/1715769406740.png</v>
-      </c>
-      <c r="B132">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769400363.png</v>
-      </c>
-      <c r="B133">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_1931084129/item_1.coreimg.png/1715766308756.png</v>
-      </c>
-      <c r="B134">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_65906452/item_1.coreimg.png/1715769336923.png</v>
-      </c>
-      <c r="B135">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1342577906/item_1.coreimg.png/1715766357034.png</v>
-      </c>
-      <c r="B136">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_1760908249/item_1.coreimg.png/1715766320889.png</v>
-      </c>
-      <c r="B137">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_104141056/item_1.coreimg.png/1715765572765-BTK%20Inhibitor.png</v>
-      </c>
-      <c r="B138">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2126162455/item_1.coreimg.png/1715765569956-ABB-101.png</v>
-      </c>
-      <c r="B139">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_941819890/item_1.coreimg.png/1715765572769-BTK%20Degrader.png</v>
-      </c>
-      <c r="B140">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_441705926/item_1.coreimg.png/1715766446538-ABBV-383.png</v>
-      </c>
-      <c r="B141">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension/item_1.coreimg.png/1715769230889-Budigalimab.png</v>
-      </c>
-      <c r="B142">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_797232505/item_1.coreimg.png/1715769232330-c-MetMMAEADC.png</v>
-      </c>
-      <c r="B143">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1421472094/item_1.coreimg.png/1715769234177-PSMA%20-%20STEAP1.png</v>
-      </c>
-      <c r="B144">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_405963686/item_1.coreimg.png/1715766446701-CD3%20X%20BCMA%20BsAb.png</v>
-      </c>
-      <c r="B145">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1491951430/item_1.coreimg.png/1715769231709-c-MetTOP1i%20ADC.png</v>
-      </c>
-      <c r="B146">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>https://preview.abbviescience.com/content/experience-fragments/abbvie-pro-medical/usa/hcp-overlay-v21/master/jcr:content/root/audience_selection_c/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
-      </c>
-      <c r="B147">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715766446660-CD3%20x%20CD20%20BsAb.png</v>
-      </c>
-      <c r="B148">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_2092201353/item_1.coreimg.png/1715769234083-PD-1%20mAb.png</v>
-      </c>
-      <c r="B149">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769233069-GARP%20-%20TGF.png</v>
-      </c>
-      <c r="B150">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715766439839-Epcoritamab.png</v>
-      </c>
-      <c r="B151">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_800201096/item_1.coreimg.png/1715769234831-SEZ6%20Top1i%20ADC.png</v>
-      </c>
-      <c r="B152">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_110809592/item_1.coreimg.png/1715769233065-IMGN-151.png</v>
-      </c>
-      <c r="B153">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715769233165-Livmoniplimab.png</v>
-      </c>
-      <c r="B154">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1551711446/item_1.coreimg.png/1715769236010-Teliso-V.png</v>
-      </c>
-      <c r="B155">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_104141056/item_1.coreimg.png/1715766339845.png</v>
-      </c>
-      <c r="B156">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_405963686/item_1.coreimg.png/1715766571805.png</v>
-      </c>
-      <c r="B157">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension/item_1.coreimg.png/1715769763023.png</v>
-      </c>
-      <c r="B158">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2126162455/item_1.coreimg.png/1715766299904.png</v>
-      </c>
-      <c r="B159">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1491951430/item_1.coreimg.png/1715769426297.png</v>
-      </c>
-      <c r="B160">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_941819890/item_1.coreimg.png/1715766343700.png</v>
-      </c>
-      <c r="B161">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_441705926/item_1.coreimg.png/1715766560130.png</v>
-      </c>
-      <c r="B162">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy/item_1.coreimg.png/1715769905958.png</v>
-      </c>
-      <c r="B163">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_797232505/item_1.coreimg.png/1715769423848.png</v>
-      </c>
-      <c r="B164">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_2092201353/item_1.coreimg.png/1715769921855.png</v>
-      </c>
-      <c r="B165">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_1421472094/item_1.coreimg.png/1715769479023.png</v>
-      </c>
-      <c r="B166">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="str">
-        <v>https://preview.abbviescience.com/content/experience-fragments/abbvie-pro-medical/usa/hcp-overlay-v21/master/jcr%3acontent/root/audience_selection_c/image-extension/item_1.coreimg.png/1694175398115.png</v>
-      </c>
-      <c r="B167">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_110809592/item_1.coreimg.png/1715769313504.png</v>
-      </c>
-      <c r="B168">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy/item_1.coreimg.png/1715766565737.png</v>
-      </c>
-      <c r="B169">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par2/image_extension_copy_800201096/item_1.coreimg.png/1715769474478.png</v>
-      </c>
-      <c r="B170">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy/item_1.coreimg.png/1715766568816.png</v>
-      </c>
-      <c r="B171">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container/parsys/column_control/par2-5050col/box_copy/parsys/column_control_v2_co/par1/image_extension_copy_1551711446/item_1.coreimg.png/1715769322371.png</v>
-      </c>
-      <c r="B172">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2100548286/item_1.coreimg.png/1715766439628-CLBR001%20+%20SWI019.png</v>
-      </c>
-      <c r="B173">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_1022804980/item_1.coreimg.png/1715769228755-ABBV-303.png</v>
-      </c>
-      <c r="B174">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_320819027/item_1.coreimg.png/1715769229098-ABBV-514.png</v>
-      </c>
-      <c r="B175">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_2007089479/item_1.coreimg.png/1715766439523-CD19%20sCAR%20T.png</v>
-      </c>
-      <c r="B176">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_935191685/item_1.coreimg.png/1715769231579-c-Met%20TriNKET.png</v>
-      </c>
-      <c r="B177">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_2136283967/item_1.coreimg.png/1715769236577-TTX-030.png</v>
-      </c>
-      <c r="B178">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_474047910/item_1.coreimg.png/1715769230413-ABBV-CLS-484.png</v>
-      </c>
-      <c r="B179">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1416536594/item_1.coreimg.png/1715769231548-CD39%20mAb.png</v>
-      </c>
-      <c r="B180">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_382429153/item_1.coreimg.png/1715769572283-PTPN2-N1.png</v>
-      </c>
-      <c r="B181">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1810158656/item_1.coreimg.png/1715769230957-CCR8%20mAb.png</v>
-      </c>
-      <c r="B182">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_976811614/item_1.coreimg.png/1715769230815-ABBV-CLS-579.png</v>
-      </c>
-      <c r="B183">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr:content/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_28654129/item_1.coreimg.png/1715769572283-PTPN2-N1.png</v>
-      </c>
-      <c r="B184">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_1022804980/item_1.coreimg.png/1715769770410.png</v>
-      </c>
-      <c r="B185">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par1/image_extension_copy_2100548286/item_1.coreimg.png/1715766563428.png</v>
-      </c>
-      <c r="B186">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_320819027/item_1.coreimg.png/1715769775043.png</v>
-      </c>
-      <c r="B187">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_2136283967/item_1.coreimg.png/1715769838384.png</v>
-      </c>
-      <c r="B188">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_935191685/item_1.coreimg.png/1715770001867.png</v>
-      </c>
-      <c r="B189">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_474047910/item_1.coreimg.png/1715769781393.png</v>
-      </c>
-      <c r="B190">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1416536594/item_1.coreimg.png/1715770059775.png</v>
-      </c>
-      <c r="B191">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_382429153/item_1.coreimg.png/1715770031086.png</v>
-      </c>
-      <c r="B192">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_1810158656/item_1.coreimg.png/1715770015447.png</v>
-      </c>
-      <c r="B193">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par2/image_extension_copy_28654129/item_1.coreimg.png/1715770035932.png</v>
-      </c>
-      <c r="B194">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy_976811614/item_1.coreimg.png/1715769786029.png</v>
-      </c>
-      <c r="B195">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par2-5050col/box/parsys/column_control_v2_co/par1/image_extension_copy/item_1.coreimg.png/1715769751819.png</v>
-      </c>
-      <c r="B196">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="str">
-        <v>https://preview.abbviescience.com/content/abbvie-pro-medical/us/en/jcr%3acontent/body/content_container/parsys/content_container_243162384/parsys/column_control/par1-5050col/box/parsys/column_control_v2/par2/image_extension_copy_2007089479/item_1.coreimg.png/1715766574159.png</v>
-      </c>
-      <c r="B197">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D11_sn_A1PI3KVEBS2EQF6QLP4L7M9SJLESVGUU&amp;svrid=-11&amp;flavor=cors&amp;vi=UPICLIRCKREPMMUBALMHHNFEHDFTUNLK-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1374611328&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B198">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D11_sn_A1PI3KVEBS2EQF6QLP4L7M9SJLESVGUU&amp;svrid=-11&amp;flavor=cors&amp;vi=UPICLIRCKREPMMUBALMHHNFEHDFTUNLK-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.abbviescience.com%2F&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1374611328&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B199">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B199"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B51"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4321,7 +5101,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://medical-preview.abbviepro.com/gr/el.html</v>
+        <v>https://medical-preview.abbviepro.com/bal/lav.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -4345,23 +5125,23 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D9_sn_GDPVE8KNHDO21HKAINBGQ5J5IJOL0DQT&amp;svrid=-9&amp;flavor=cors&amp;vi=ROUFCHCNHHRSVUBAPPOPLEWULOIAVHRF-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=587793038&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://medical-preview.abbviepro.com/bal/Latvia.html</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D9_sn_GDPVE8KNHDO21HKAINBGQ5J5IJOL0DQT&amp;svrid=-9&amp;flavor=cors&amp;vi=ROUFCHCNHHRSVUBAPPOPLEWULOIAVHRF-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3992558912&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -4369,15 +5149,15 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://medical-preview.abbviepro.com/gr/el.html</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B9">
         <v>200</v>
@@ -4385,7 +5165,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -4393,7 +5173,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -4401,7 +5181,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
+        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
       </c>
       <c r="B12">
         <v>200</v>
@@ -4409,15 +5189,15 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
       </c>
       <c r="B14">
         <v>304</v>
@@ -4425,7 +5205,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
+        <v>https://medical-preview.abbviepro.com/bal/Latvia/everest.html</v>
       </c>
       <c r="B15">
         <v>200</v>
@@ -4433,7 +5213,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B16">
         <v>200</v>
@@ -4441,15 +5221,15 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
       </c>
       <c r="B17">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
       </c>
       <c r="B18">
         <v>200</v>
@@ -4457,7 +5237,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -4465,7 +5245,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -4473,7 +5253,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -4481,15 +5261,15 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B22">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -4497,15 +5277,15 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
       </c>
       <c r="B24">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -4513,7 +5293,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -4521,7 +5301,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -4529,7 +5309,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
       </c>
       <c r="B28">
         <v>200</v>
@@ -4537,7 +5317,7 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/gr/el/pink-flask.jpg/_jcr_content/renditions/cq5dam.web.1280.1280.jpeg</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
       </c>
       <c r="B29">
         <v>200</v>
@@ -4545,7 +5325,7 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -4553,7 +5333,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/gr/el/jcr:content</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -4561,7 +5341,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://consent.trustarc.com/v2/notice/0fpbwt</v>
+        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -4569,23 +5349,23 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gr/el/jcr:content/header/global_header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
       </c>
       <c r="B33">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gr/el/jcr:content/footer/footer_area/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B34">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-error.svg</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -4593,7 +5373,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close-white.svg</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -4601,7 +5381,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://consent.trustarc.com/v2/asset/ic-close.svg</v>
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -4609,7 +5389,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://consent.trustarc.com/v2/asset/trustarc-logo-xs.svg</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/everest%20logo%20trans.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B38">
         <v>200</v>
@@ -4617,7 +5397,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://consent.trustarc.com/v2/asset/15:16:39.915r07dsr_AbbVieID_transp_logo.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/introducing%20the%20community%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B39">
         <v>200</v>
@@ -4625,7 +5405,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://consent.trustarc.com/v2/asset/latin.woff2</v>
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -4633,15 +5413,15 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gr/el/jcr%3acontent/footer/footer_area/image-extension/item_1.coreimg.png/1685635293046.png</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lav/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
       </c>
       <c r="B41">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/gr/el/jcr%3acontent/header/global_header/mega-menu/image-extension/item_1.coreimg.png/1700827859422.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/how%20can%20we%20help%20you%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -4649,15 +5429,15 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/log?action=impression&amp;domain=0fpbwt&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.7187252426958499&amp;session=d86955fc-580c-4439-a63e-aac2ee934063&amp;userType=NEW</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lav/everest/jcr:content/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1698405993374-everest%20logo%20trans.png</v>
       </c>
       <c r="B43">
-        <v>202</v>
+        <v>302</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://consent.trustarc.com/v2/consentcategories/getnonemptyindexes?cmId=0fpbwt&amp;referer=&amp;fullURL=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgr%2Fel.html&amp;category=</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B44">
         <v>200</v>
@@ -4665,15 +5445,15 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://consent-reporting.trustarc.com/api/user-action/bannermsg?action=views&amp;domain=0fpbwt&amp;behavior=implied&amp;country=bd&amp;language=en&amp;rand=0.408099422748718&amp;session=d86955fc-580c-4439-a63e-aac2ee934063&amp;userType=NEW</v>
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B45">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D9_sn_GDPVE8KNHDO21HKAINBGQ5J5IJOL0DQT&amp;svrid=-9&amp;flavor=cors&amp;vi=ROUFCHCNHHRSVUBAPPOPLEWULOIAVHRF-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgr%2Fel.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2869946943&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/bal/lav/everest/jcr:content</v>
       </c>
       <c r="B46">
         <v>200</v>
@@ -4681,22 +5461,86 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D9_sn_GDPVE8KNHDO21HKAINBGQ5J5IJOL0DQT&amp;svrid=-9&amp;flavor=cors&amp;vi=ROUFCHCNHHRSVUBAPPOPLEWULOIAVHRF-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fgr%2Fel.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2088413687&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lav/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1697805894720.png</v>
       </c>
       <c r="B47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
+      </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B49">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B50">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lav/everest/jcr%3acontent/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1700820993658.png</v>
+      </c>
+      <c r="B51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D17_sn_T8O0KTINVO0K9KQJP0F9MIA0NPTKHH3P&amp;svrid=-17&amp;flavor=cors&amp;vi=RAPEQFEVCESMFCKVNSCNPURVOWAJQNTN-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3376027214&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D17_sn_T8O0KTINVO0K9KQJP0F9MIA0NPTKHH3P&amp;svrid=-17&amp;flavor=cors&amp;vi=RAPEQFEVCESMFCKVNSCNPURVOWAJQNTN-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=941290576&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_6_sn_T8O0KTINVO0K9KQJP0F9MIA0NPTKHH3P_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=6&amp;flavor=cors&amp;vi=RAPEQFEVCESMFCKVNSCNPURVOWAJQNTN-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3164315134&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B55">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B47"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B55"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -4711,7 +5555,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>https://medical-preview.abbviepro.com/bal/lav.html</v>
+        <v>https://medical-preview.abbviepro.com/bal/lit.html</v>
       </c>
       <c r="B2">
         <v>200</v>
@@ -4735,23 +5579,23 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
       </c>
       <c r="B5">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D66_sn_80FT941MUA1MJJQRIEBG34FJB1Q5M6BT&amp;svrid=-66&amp;flavor=cors&amp;vi=ONLMAKVFJOKPKBPCEMLFLRRUCJABPQHB-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3313457587&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://medical-preview.abbviepro.com/bal/lit.html</v>
       </c>
       <c r="B6">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D66_sn_80FT941MUA1MJJQRIEBG34FJB1Q5M6BT&amp;svrid=-66&amp;flavor=cors&amp;vi=ONLMAKVFJOKPKBPCEMLFLRRUCJABPQHB-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1245304502&amp;en=oao3vfhf&amp;end=1</v>
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B7">
         <v>200</v>
@@ -4759,23 +5603,23 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
+        <v>https://medical-preview.abbviepro.com/bal/lit/everest.html</v>
       </c>
       <c r="B8">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>https://medical-preview.abbviepro.com/bal/Latvia.html</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
       </c>
       <c r="B9">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>https://medical-preview.abbviepro.com/bal/Latvia/everest.html</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B10">
         <v>200</v>
@@ -4783,907 +5627,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.css</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
         <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
-      </c>
-      <c r="B15">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
-      </c>
-      <c r="B16">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
-      </c>
-      <c r="B21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
-      </c>
-      <c r="B22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Mobile%20nav.png</v>
-      </c>
-      <c r="B23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/Magnify.png</v>
-      </c>
-      <c r="B24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
-      </c>
-      <c r="B25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
-      </c>
-      <c r="B26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
-      </c>
-      <c r="B27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
-      </c>
-      <c r="B28">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
-      </c>
-      <c r="B29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
-      </c>
-      <c r="B30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/everest%20logo%20trans.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
-      </c>
-      <c r="B32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
-      </c>
-      <c r="B34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
-      </c>
-      <c r="B36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
-      </c>
-      <c r="B39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
-      </c>
-      <c r="B42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/introducing%20the%20community%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/how%20can%20we%20help%20you%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
-      </c>
-      <c r="B44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
-      </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
-      </c>
-      <c r="B46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/bal/lav/everest/jcr:content</v>
-      </c>
-      <c r="B48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
-      </c>
-      <c r="B49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lav/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
-      </c>
-      <c r="B50">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lav/everest/jcr:content/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1698405993374-everest%20logo%20trans.png</v>
-      </c>
-      <c r="B51">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
-      </c>
-      <c r="B52">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lav/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1697805894720.png</v>
-      </c>
-      <c r="B53">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lav/everest/jcr%3acontent/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1700820993658.png</v>
-      </c>
-      <c r="B54">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D66_sn_80FT941MUA1MJJQRIEBG34FJB1Q5M6BT&amp;svrid=-66&amp;flavor=cors&amp;vi=ONLMAKVFJOKPKBPCEMLFLRRUCJABPQHB-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3775787847&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B55">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D66_sn_80FT941MUA1MJJQRIEBG34FJB1Q5M6BT&amp;svrid=-66&amp;flavor=cors&amp;vi=ONLMAKVFJOKPKBPCEMLFLRRUCJABPQHB-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2770063798&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B56">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D66_sn_80FT941MUA1MJJQRIEBG34FJB1Q5M6BT&amp;svrid=-66&amp;flavor=cors&amp;vi=ONLMAKVFJOKPKBPCEMLFLRRUCJABPQHB-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2FLatvia%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=1699543187&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B57">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B57"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://medical-preview.abbviepro.com/it/it.html</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://preview.everestitaly.it/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D90_sn_3VDS86K0FJTM93G4BTG2KGN8R2BOGR8P&amp;svrid=-90&amp;flavor=cors&amp;vi=QAIBWHAJVLVLHQACQFSMRPBDREVFPLFV-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.everestitaly.it%2Fit%2Fbasic-login%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=853211213&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D90_sn_3VDS86K0FJTM93G4BTG2KGN8R2BOGR8P&amp;svrid=-90&amp;flavor=cors&amp;vi=QAIBWHAJVLVLHQACQFSMRPBDREVFPLFV-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fpreview.everestitaly.it%2Fit%2Fbasic-login%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=581193427&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://preview.everestitaly.it/bin/public/abbvie-commons/basic-login</v>
-      </c>
-      <c r="B6">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://preview.everestitaly.it/</v>
-      </c>
-      <c r="B7">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://preview.everestitaly.it/it/everest.html</v>
-      </c>
-      <c r="B8">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://api.piap.abbvie.net/auth/abbvie-id/login?appName=ABBVIEPRO-MEDICAL&amp;country=IT&amp;language=IT&amp;appEnvironmentName=PREVIEW&amp;redirectPath=https%3A%2F%2Fpreview.everestitaly.it%2Fit%2Feverest.html</v>
-      </c>
-      <c r="B9">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/services/apexrest/v1/branding/oauth2/authorize/AID-0000931/locale/it-IT?client_id=3MVG9lcxCTdG2VbsLL3yIc_u01jtE8j9jhvclSPcft8wSN8Uk3nRfr3XdsQaj_4yyzWh.L.Nz90sNKQMdm8Ff&amp;scope=openid%20refresh_token%20api%20custom_permissions&amp;response_type=code&amp;redirect_uri=https://preview.everestitaly.it/auth.login.success.html&amp;state=country_it:language_it:appName_abbviepro-medical:redirectPath_https://preview.everestitaly.it/it/everest.html:properties_:key_EYDMUbcyoq9665LFHnmb</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AppRouterMVN</v>
-      </c>
-      <c r="B11">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/AuthRouterMVN?startURL=%2FAppRouterMVN</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login?startURL=%2FAppRouterMVN</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/css/bootstrap.min.css</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/perf/stub.js</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1699262264250/ui-sfdc-javascript-impl/SfdcCore.js</v>
-      </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/VFState.js</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/static/111213/js/picklist4.js</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/popper.min.js</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery.validate.min.js</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/jquery-3.7.1.min.js</v>
-      </c>
-      <c r="B21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/snackbar.min.js</v>
-      </c>
-      <c r="B22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap.min.js</v>
-      </c>
-      <c r="B23">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Roboto:wght@300;400;500;700&amp;display=swap</v>
-      </c>
-      <c r="B24">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/bootstrap-material-design.min.js</v>
-      </c>
-      <c r="B25">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1589314309000/FontAwesome/css/all.css</v>
-      </c>
-      <c r="B26">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/jslibrary/1698336664250/sfdc/NetworkTracking.js</v>
-      </c>
-      <c r="B27">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/resource/1717488083000/bootstrap_4/js/arrive.min.js</v>
-      </c>
-      <c r="B28">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>https://www.google.com/recaptcha/api.js</v>
-      </c>
-      <c r="B29">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/faces/a4j/g/3_3_3.Finalorg.ajax4jsf.javascript.AjaxScript?rel=1718232025000</v>
-      </c>
-      <c r="B30">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/59tbS4kotYibm6N8c8hFeS/9f073bb5337c6768b053a8cf7dc4581d/bootstrap-material-design.css</v>
-      </c>
-      <c r="B31">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/4mNGwAc9sWFCL8srhu630y/d34552ede25a6b593db2a3c7276df538/abbvie.css</v>
-      </c>
-      <c r="B32">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>https://assets.ctfassets.net/k0qxrv0io7m9/O7S9wEJti4WiUNZnC3Leo/8de3a4461df6aa3cc20f78350a295eaa/bootstrap.min.css</v>
-      </c>
-      <c r="B33">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>https://consent.trustarc.com/v2/notice/lkd017</v>
-      </c>
-      <c r="B34">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
-      </c>
-      <c r="B35">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmWUlfBBc4.woff2</v>
-      </c>
-      <c r="B36">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
-      </c>
-      <c r="B37">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v30/KFOlCnqEu92Fr1MmEU9fBBc4.woff2</v>
-      </c>
-      <c r="B38">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>https://www.google.com/recaptcha/api2/anchor?ar=1&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68&amp;co=aHR0cHM6Ly9pY2MtYWJidmllLS1pY2N1YXQuc2FuZGJveC5teS5zaXRlLmNvbTo0NDM.&amp;hl=en&amp;type=image&amp;v=9pvHvq7kSOTqqZusUzJ6ewaF&amp;size=normal&amp;cb=159x9w7pwn5k</v>
-      </c>
-      <c r="B39">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
-      </c>
-      <c r="B40">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/styles__ltr.css</v>
-      </c>
-      <c r="B41">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/Login</v>
-      </c>
-      <c r="B42">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>https://www.gstatic.com/recaptcha/api2/logo_48.png</v>
-      </c>
-      <c r="B43">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>https://www.google.com/js/bg/YiMnlwYAPK-5JOvV4HgQVh4BjdfeuDlm7M1GgLf3u0w.js</v>
-      </c>
-      <c r="B44">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
-      </c>
-      <c r="B45">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="str">
-        <v>https://www.google.com/recaptcha/api2/webworker.js?hl=en&amp;v=9pvHvq7kSOTqqZusUzJ6ewaF</v>
-      </c>
-      <c r="B46">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
-      </c>
-      <c r="B47">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="str">
-        <v>https://www.google.com/recaptcha/api2/bframe?hl=en&amp;v=9pvHvq7kSOTqqZusUzJ6ewaF&amp;k=6Lcmi-8lAAAAAOF09d1YNU-YrtMBu1XPJWXoNe68</v>
-      </c>
-      <c r="B48">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/recaptcha__en.js</v>
-      </c>
-      <c r="B49">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="str">
-        <v>https://www.gstatic.com/recaptcha/releases/9pvHvq7kSOTqqZusUzJ6ewaF/styles__ltr.css</v>
-      </c>
-      <c r="B50">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="str">
-        <v>https://fonts.gstatic.com/s/roboto/v18/KFOmCnqEu92Fr1Mu4mxK.woff2</v>
-      </c>
-      <c r="B51">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="str">
-        <v>https://icc-abbvie--iccuat.sandbox.my.site.com/_ui/networks/tracking/NetworkTrackingServlet</v>
-      </c>
-      <c r="B52">
-        <v>204</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B52"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>url</v>
-      </c>
-      <c r="B1" t="str">
-        <v>status</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>https://medical-preview.abbviepro.com/bal/est.html</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/basic-login/jcr:content</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D71_sn_053HLNVI7JF4BSU4MM52VU92TOIRHJ1Q&amp;svrid=-71&amp;flavor=cors&amp;vi=PPOUCRHTUHRSCVKUARMBKUGJQEEPCVWH-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=648229459&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D71_sn_053HLNVI7JF4BSU4MM52VU92TOIRHJ1Q&amp;svrid=-71&amp;flavor=cors&amp;vi=PPOUCRHTUHRSCVKUARMBKUGJQEEPCVWH-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbasic-login.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=231961944&amp;en=oao3vfhf&amp;end=1</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/basic-login</v>
-      </c>
-      <c r="B8">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>https://medical-preview.abbviepro.com/bal/est/everest.html</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/clientlibs/granite/jquery/granite/csrf.min.js</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/headline-text/clientlibs.min.js</v>
       </c>
       <c r="B11">
         <v>200</v>
@@ -5699,7 +5643,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/button-link/clientlibs.min.js</v>
+        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
       </c>
       <c r="B13">
         <v>200</v>
@@ -5707,10 +5651,10 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>https://fonts.googleapis.com/css2?family=Assistant:wght@300;400;500;600;700;800&amp;display=swap</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15">
@@ -5718,7 +5662,7 @@
         <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.css</v>
       </c>
       <c r="B15">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -5739,15 +5683,15 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/medical-publish-header.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
       </c>
       <c r="B18">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
       </c>
       <c r="B19">
         <v>200</v>
@@ -5755,7 +5699,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
       </c>
       <c r="B20">
         <v>200</v>
@@ -5763,7 +5707,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -5771,15 +5715,15 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
       </c>
       <c r="B22">
-        <v>200</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
+        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
       </c>
       <c r="B23">
         <v>200</v>
@@ -5787,7 +5731,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/images/icons/mobile-menu-close.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
       </c>
       <c r="B24">
         <v>200</v>
@@ -5795,7 +5739,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpopup/content.min.css</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
       </c>
       <c r="B25">
         <v>200</v>
@@ -5803,7 +5747,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>https://players.brightcove.net/1029485116001/JzRQaS6Ne_default/index.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
       </c>
       <c r="B26">
         <v>200</v>
@@ -5811,7 +5755,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-com2/components/xfpage/content.min.css</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B27">
         <v>200</v>
@@ -5827,15 +5771,15 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/publish-footer.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
       </c>
       <c r="B29">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/meta-navigation/clientlibs.min.js</v>
+        <v>https://cag.abbvie.com:9999/jstag/managed/ruxitagent_A2Vfqru_10249220905100923.js</v>
       </c>
       <c r="B30">
         <v>200</v>
@@ -5843,7 +5787,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/cookie-toolbar/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_bold.woff2</v>
       </c>
       <c r="B31">
         <v>200</v>
@@ -5851,7 +5795,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/image-extension/clientlibs.min.js</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_light.woff2</v>
       </c>
       <c r="B32">
         <v>200</v>
@@ -5859,7 +5803,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/logo/2023/AbbVie-Pro-Medical-logo.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/roboto/roboto_regular.woff2</v>
       </c>
       <c r="B33">
         <v>200</v>
@@ -5867,7 +5811,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
       </c>
       <c r="B34">
         <v>200</v>
@@ -5875,7 +5819,7 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/components/content/inline-video/clientlib.min.js</v>
+        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
       </c>
       <c r="B35">
         <v>200</v>
@@ -5883,7 +5827,7 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>https://consent.trustarc.com/v2/notice/pl0dws</v>
+        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
       </c>
       <c r="B36">
         <v>200</v>
@@ -5891,7 +5835,7 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
       </c>
       <c r="B37">
         <v>200</v>
@@ -5899,23 +5843,23 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lit/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
       </c>
       <c r="B38">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lit/everest/jcr:content/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1698405993374-everest%20logo%20trans.png</v>
       </c>
       <c r="B39">
-        <v>200</v>
+        <v>302</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
       </c>
       <c r="B40">
         <v>200</v>
@@ -5923,7 +5867,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/how%20can%20we%20help%20you%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
       </c>
       <c r="B41">
         <v>200</v>
@@ -5931,7 +5875,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/introducing%20the%20community%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/button_everest5.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B42">
         <v>200</v>
@@ -5939,7 +5883,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>https://vjs.zencdn.net/vttjs/0.15.3/vtt.global.min.js</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/toolkits_button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B43">
         <v>200</v>
@@ -5947,7 +5891,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>https://edge.api.brightcove.com/playback/v1/accounts/1029485116001/videos/6340352328112</v>
+        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/bal/lit/everest/jcr:content</v>
       </c>
       <c r="B44">
         <v>200</v>
@@ -5955,7 +5899,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>https://cf-images.us-east-1.prod.boltdns.net/v1/static/1029485116001/c8a900cc-bb94-4962-9a11-6961bdb1393c/8568cc77-644a-4fa7-9fa9-9ba2f6715720/1280x720/match/image.jpg</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/how%20can%20we%20help%20you%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B45">
         <v>200</v>
@@ -5963,7 +5907,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>https://medical-preview.abbviepro.com/etc.clientlibs/abbvie-pro/clientlibs/assets/resources/fonts/hcpicon/hcpicon.ttf?q0neb3</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lit/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1697806930306.png</v>
       </c>
       <c r="B46">
         <v>200</v>
@@ -5971,7 +5915,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/introducing%20the%20community%20button.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B47">
         <v>200</v>
@@ -5979,23 +5923,23 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/est/jcr:content/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1685629682223-AbbVie-Pro-Medical-logo.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/banner%20background.png/_jcr_content/renditions/original</v>
       </c>
       <c r="B48">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/est/everest/jcr:content/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1698405993374-everest%20logo%20trans.png</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/02%20Image%20Mountanier%20red%20backpack.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B49">
-        <v>302</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>https://medical-preview.abbviepro.com/libs/granite/csrf/token.json</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/01%20Image%20clouds.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B50">
         <v>200</v>
@@ -6003,7 +5947,7 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>https://medical-preview.abbviepro.com/bin/public/abbvie-commons/hreflangs?resourcePath=/content/abbvie-pro-medical/bal/est/everest/jcr:content</v>
+        <v>https://medical-preview.abbviepro.com/content/dam/abbvie-pro-medical/baltics/everest1/05%20Image%20flags.png/_jcr_content/renditions/cq5dam.web.1280.1280.png</v>
       </c>
       <c r="B51">
         <v>200</v>
@@ -6011,7 +5955,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/est/jcr%3acontent/header/global-header/mega-menu/image-extension/item_1.coreimg.png/1697806876874.png</v>
+        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/lit/everest/jcr%3acontent/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1700822612494.png</v>
       </c>
       <c r="B52">
         <v>200</v>
@@ -6019,15 +5963,39 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>https://medical-preview.abbviepro.com/content/abbvie-pro-medical/bal/est/everest/jcr%3acontent/body/column_control_14836/par1-100col/column_control/par1-100col/column_control/par2-176617col/image_extension/item_1.coreimg.png/1700826075655.png</v>
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D55_sn_G64GSFFBDHUNTO67EMSVBD9NQ9J7BUBR&amp;svrid=-55&amp;flavor=cors&amp;vi=RKBPFFGGMWRENTTUONEEFUOWKUHRMFWH-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=3416539258&amp;en=oao3vfhf&amp;end=1</v>
       </c>
       <c r="B53">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_-2D55_sn_G64GSFFBDHUNTO67EMSVBD9NQ9J7BUBR&amp;svrid=-55&amp;flavor=cors&amp;vi=RKBPFFGGMWRENTTUONEEFUOWKUHRMFWH-0&amp;modifiedSince=1665670131313&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2324404237&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B54">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_G64GSFFBDHUNTO67EMSVBD9NQ9J7BUBR_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=RKBPFFGGMWRENTTUONEEFUOWKUHRMFWH-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2864300265&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B55">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>https://cag.abbvie.com:9999/bf/16a183f6-c871-4082-850b-a1f7a2ecd0b1?type=js3&amp;sn=v_4_srv_2_sn_G64GSFFBDHUNTO67EMSVBD9NQ9J7BUBR_app-3A3b82b35114a35a05_1_ol_0_perc_100000_mul_1&amp;svrid=2&amp;flavor=cors&amp;vi=RKBPFFGGMWRENTTUONEEFUOWKUHRMFWH-0&amp;modifiedSince=1720290200630&amp;rf=https%3A%2F%2Fmedical-preview.abbviepro.com%2Fbal%2Flit%2Feverest.html&amp;bp=3&amp;app=3b82b35114a35a05&amp;crc=2864300265&amp;en=oao3vfhf&amp;end=1</v>
+      </c>
+      <c r="B56">
         <v>200</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B56"/>
   </ignoredErrors>
 </worksheet>
 </file>